--- a/RegisterMap.xlsx
+++ b/RegisterMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/HEI/Ausbildung/OT-Security/Modbus2HomeIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D5048E-C749-2D42-B292-036926060510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF1990D-9E93-CB46-AEE5-02AE5D6DE5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3200" windowWidth="33600" windowHeight="34600" xr2:uid="{3E16FCC4-2685-EA44-AF4C-31C06AA42875}"/>
+    <workbookView xWindow="0" yWindow="16840" windowWidth="33600" windowHeight="20960" xr2:uid="{3E16FCC4-2685-EA44-AF4C-31C06AA42875}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1320,7 +1320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1475,14 +1475,179 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,24 +1667,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,42 +1685,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1582,126 +1693,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1711,13 +1702,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF68B7D1"/>
+      <color rgb="FFEED688"/>
       <color rgb="FFC28FCC"/>
       <color rgb="FFCF729C"/>
       <color rgb="FFCFA1B5"/>
-      <color rgb="FF68B7D1"/>
       <color rgb="FFE3A58D"/>
       <color rgb="FF4C997E"/>
-      <color rgb="FFEED688"/>
       <color rgb="FF009CD1"/>
       <color rgb="FFE46836"/>
     </mruColors>
@@ -2052,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBBA9C7-BEC1-034F-B8CD-37B39F89468E}">
   <dimension ref="B1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2098,10 +2089,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="122">
+      <c r="B3" s="84">
         <v>1</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="67" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="17">
@@ -2122,13 +2113,13 @@
       <c r="I3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="106" t="s">
+      <c r="J3" s="72" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="123"/>
-      <c r="C4" s="126"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="8">
         <v>1</v>
       </c>
@@ -2147,11 +2138,11 @@
       <c r="I4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="107"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="123"/>
-      <c r="C5" s="126"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="18">
         <v>2</v>
       </c>
@@ -2170,11 +2161,11 @@
       <c r="I5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="107"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="123"/>
-      <c r="C6" s="126"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="8">
         <v>3</v>
       </c>
@@ -2193,11 +2184,11 @@
       <c r="I6" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="107"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="123"/>
-      <c r="C7" s="126"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="18">
         <v>4</v>
       </c>
@@ -2216,11 +2207,11 @@
       <c r="I7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="107"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="8">
         <v>5</v>
       </c>
@@ -2239,11 +2230,11 @@
       <c r="I8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="107"/>
+      <c r="J8" s="73"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="18">
         <v>6</v>
       </c>
@@ -2262,11 +2253,11 @@
       <c r="I9" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="107"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="123"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="8">
         <v>7</v>
       </c>
@@ -2285,11 +2276,11 @@
       <c r="I10" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="107"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="123"/>
-      <c r="C11" s="126"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="18">
         <v>8</v>
       </c>
@@ -2308,11 +2299,11 @@
       <c r="I11" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="107"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="123"/>
-      <c r="C12" s="127"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="9">
         <v>9</v>
       </c>
@@ -2331,11 +2322,11 @@
       <c r="I12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="107"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="123"/>
-      <c r="C13" s="128" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="69" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="17">
@@ -2356,11 +2347,11 @@
       <c r="I13" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="107"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="123"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="8">
         <v>1</v>
       </c>
@@ -2379,11 +2370,11 @@
       <c r="I14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="107"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="123"/>
-      <c r="C15" s="129"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="18">
         <v>2</v>
       </c>
@@ -2402,11 +2393,11 @@
       <c r="I15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="107"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="123"/>
-      <c r="C16" s="129"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="8">
         <v>3</v>
       </c>
@@ -2425,11 +2416,11 @@
       <c r="I16" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="107"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="123"/>
-      <c r="C17" s="129"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="18">
         <v>4</v>
       </c>
@@ -2448,11 +2439,11 @@
       <c r="I17" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="107"/>
+      <c r="J17" s="73"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="123"/>
-      <c r="C18" s="129"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="8">
         <v>5</v>
       </c>
@@ -2471,11 +2462,11 @@
       <c r="I18" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="107"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="123"/>
-      <c r="C19" s="129"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="18">
         <v>6</v>
       </c>
@@ -2494,11 +2485,11 @@
       <c r="I19" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="107"/>
+      <c r="J19" s="73"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="123"/>
-      <c r="C20" s="129"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="8">
         <v>7</v>
       </c>
@@ -2517,11 +2508,11 @@
       <c r="I20" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="J20" s="107"/>
+      <c r="J20" s="73"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="123"/>
-      <c r="C21" s="129"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="18">
         <v>8</v>
       </c>
@@ -2540,11 +2531,11 @@
       <c r="I21" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="107"/>
+      <c r="J21" s="73"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="123"/>
-      <c r="C22" s="129"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="8">
         <v>9</v>
       </c>
@@ -2563,11 +2554,11 @@
       <c r="I22" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="107"/>
+      <c r="J22" s="73"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="123"/>
-      <c r="C23" s="129"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="18">
         <v>10</v>
       </c>
@@ -2586,11 +2577,11 @@
       <c r="I23" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="107"/>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="123"/>
-      <c r="C24" s="129"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="8">
         <v>11</v>
       </c>
@@ -2609,11 +2600,11 @@
       <c r="I24" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="J24" s="107"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="123"/>
-      <c r="C25" s="129"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="18">
         <v>12</v>
       </c>
@@ -2632,11 +2623,11 @@
       <c r="I25" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="J25" s="107"/>
+      <c r="J25" s="73"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="123"/>
-      <c r="C26" s="129"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="8">
         <v>13</v>
       </c>
@@ -2655,11 +2646,11 @@
       <c r="I26" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="J26" s="107"/>
+      <c r="J26" s="73"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="123"/>
-      <c r="C27" s="129"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="18">
         <v>14</v>
       </c>
@@ -2678,11 +2669,11 @@
       <c r="I27" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="J27" s="107"/>
+      <c r="J27" s="73"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="123"/>
-      <c r="C28" s="129"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="8">
         <v>15</v>
       </c>
@@ -2701,11 +2692,11 @@
       <c r="I28" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="J28" s="107"/>
+      <c r="J28" s="73"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="123"/>
-      <c r="C29" s="129"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="18">
         <v>16</v>
       </c>
@@ -2724,11 +2715,11 @@
       <c r="I29" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="J29" s="107"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="123"/>
-      <c r="C30" s="129"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="8">
         <v>17</v>
       </c>
@@ -2747,11 +2738,11 @@
       <c r="I30" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="J30" s="107"/>
+      <c r="J30" s="73"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="123"/>
-      <c r="C31" s="129"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="18">
         <v>18</v>
       </c>
@@ -2770,11 +2761,11 @@
       <c r="I31" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="J31" s="107"/>
+      <c r="J31" s="73"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="123"/>
-      <c r="C32" s="129"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="8">
         <v>19</v>
       </c>
@@ -2793,11 +2784,11 @@
       <c r="I32" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="J32" s="107"/>
+      <c r="J32" s="73"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="123"/>
-      <c r="C33" s="129"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="18">
         <v>20</v>
       </c>
@@ -2816,11 +2807,11 @@
       <c r="I33" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="J33" s="107"/>
+      <c r="J33" s="73"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="123"/>
-      <c r="C34" s="129"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="8">
         <v>21</v>
       </c>
@@ -2835,11 +2826,11 @@
       <c r="I34" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="107"/>
+      <c r="J34" s="73"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="123"/>
-      <c r="C35" s="129"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="18">
         <v>22</v>
       </c>
@@ -2858,11 +2849,11 @@
       <c r="I35" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="107"/>
+      <c r="J35" s="73"/>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="123"/>
-      <c r="C36" s="130"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="9">
         <v>23</v>
       </c>
@@ -2877,11 +2868,11 @@
       <c r="I36" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="107"/>
+      <c r="J36" s="73"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="123"/>
-      <c r="C37" s="131" t="s">
+      <c r="B37" s="85"/>
+      <c r="C37" s="88" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="17">
@@ -2902,11 +2893,11 @@
       <c r="I37" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="J37" s="107"/>
+      <c r="J37" s="73"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="123"/>
-      <c r="C38" s="132"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="8">
         <v>1</v>
       </c>
@@ -2925,11 +2916,11 @@
       <c r="I38" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="J38" s="107"/>
+      <c r="J38" s="73"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="123"/>
-      <c r="C39" s="132"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="18">
         <v>2</v>
       </c>
@@ -2948,11 +2939,11 @@
       <c r="I39" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="107"/>
+      <c r="J39" s="73"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="123"/>
-      <c r="C40" s="132"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="8">
         <v>3</v>
       </c>
@@ -2971,11 +2962,11 @@
       <c r="I40" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="J40" s="107"/>
+      <c r="J40" s="73"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="123"/>
-      <c r="C41" s="132"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="18">
         <v>4</v>
       </c>
@@ -2994,11 +2985,11 @@
       <c r="I41" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J41" s="107"/>
+      <c r="J41" s="73"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="123"/>
-      <c r="C42" s="132"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="8">
         <v>5</v>
       </c>
@@ -3017,11 +3008,11 @@
       <c r="I42" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="J42" s="107"/>
+      <c r="J42" s="73"/>
     </row>
     <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="123"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="19">
         <v>6</v>
       </c>
@@ -3040,11 +3031,11 @@
       <c r="I43" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J43" s="107"/>
+      <c r="J43" s="73"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="123"/>
-      <c r="C44" s="85" t="s">
+      <c r="B44" s="85"/>
+      <c r="C44" s="91" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="10">
@@ -3065,11 +3056,11 @@
       <c r="I44" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="J44" s="107"/>
+      <c r="J44" s="73"/>
     </row>
     <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="124"/>
-      <c r="C45" s="87"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="19">
         <v>1</v>
       </c>
@@ -3088,13 +3079,13 @@
       <c r="I45" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J45" s="108"/>
+      <c r="J45" s="74"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="113">
+      <c r="B46" s="93">
         <v>2</v>
       </c>
-      <c r="C46" s="125" t="s">
+      <c r="C46" s="67" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="10">
@@ -3115,13 +3106,13 @@
       <c r="I46" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="J46" s="134" t="s">
+      <c r="J46" s="75" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
-      <c r="C47" s="127"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="19">
         <v>1</v>
       </c>
@@ -3140,11 +3131,11 @@
       <c r="I47" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="J47" s="135"/>
+      <c r="J47" s="76"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="114"/>
-      <c r="C48" s="128" t="s">
+      <c r="B48" s="94"/>
+      <c r="C48" s="69" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="10">
@@ -3165,11 +3156,11 @@
       <c r="I48" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="J48" s="135"/>
+      <c r="J48" s="76"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="114"/>
-      <c r="C49" s="129"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="18">
         <v>1</v>
       </c>
@@ -3188,11 +3179,11 @@
       <c r="I49" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="J49" s="135"/>
+      <c r="J49" s="76"/>
     </row>
     <row r="50" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
-      <c r="C50" s="130"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="9">
         <v>2</v>
       </c>
@@ -3211,11 +3202,11 @@
       <c r="I50" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="135"/>
+      <c r="J50" s="76"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="114"/>
-      <c r="C51" s="85" t="s">
+      <c r="B51" s="94"/>
+      <c r="C51" s="91" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="17">
@@ -3236,11 +3227,11 @@
       <c r="I51" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="J51" s="135"/>
+      <c r="J51" s="76"/>
     </row>
     <row r="52" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="115"/>
-      <c r="C52" s="87"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="9">
         <v>1</v>
       </c>
@@ -3259,10 +3250,10 @@
       <c r="I52" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="J52" s="136"/>
+      <c r="J52" s="77"/>
     </row>
     <row r="53" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="122">
+      <c r="B53" s="84">
         <v>3</v>
       </c>
       <c r="C53" s="61" t="s">
@@ -3286,12 +3277,12 @@
       <c r="I53" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J53" s="137" t="s">
+      <c r="J53" s="78" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="123"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="55" t="s">
         <v>11</v>
       </c>
@@ -3313,10 +3304,10 @@
       <c r="I54" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="J54" s="138"/>
+      <c r="J54" s="79"/>
     </row>
     <row r="55" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="124"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="51" t="s">
         <v>19</v>
       </c>
@@ -3338,13 +3329,13 @@
       <c r="I55" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="J55" s="139"/>
+      <c r="J55" s="80"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B56" s="113">
+      <c r="B56" s="93">
         <v>4</v>
       </c>
-      <c r="C56" s="125" t="s">
+      <c r="C56" s="67" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="10">
@@ -3365,13 +3356,13 @@
       <c r="I56" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="J56" s="116" t="s">
+      <c r="J56" s="81" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B57" s="114"/>
-      <c r="C57" s="126"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="87"/>
       <c r="D57" s="18">
         <v>1</v>
       </c>
@@ -3390,11 +3381,11 @@
       <c r="I57" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="117"/>
+      <c r="J57" s="82"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B58" s="114"/>
-      <c r="C58" s="126"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="87"/>
       <c r="D58" s="8">
         <v>2</v>
       </c>
@@ -3413,11 +3404,11 @@
       <c r="I58" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J58" s="117"/>
+      <c r="J58" s="82"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B59" s="114"/>
-      <c r="C59" s="126"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="18">
         <v>3</v>
       </c>
@@ -3436,11 +3427,11 @@
       <c r="I59" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J59" s="117"/>
+      <c r="J59" s="82"/>
     </row>
     <row r="60" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
-      <c r="C60" s="127"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="9">
         <v>4</v>
       </c>
@@ -3459,11 +3450,11 @@
       <c r="I60" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J60" s="117"/>
+      <c r="J60" s="82"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B61" s="114"/>
-      <c r="C61" s="128" t="s">
+      <c r="B61" s="94"/>
+      <c r="C61" s="69" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="17">
@@ -3484,11 +3475,11 @@
       <c r="I61" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="J61" s="117"/>
+      <c r="J61" s="82"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B62" s="114"/>
-      <c r="C62" s="129"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="8">
         <v>1</v>
       </c>
@@ -3507,11 +3498,11 @@
       <c r="I62" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J62" s="117"/>
+      <c r="J62" s="82"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B63" s="114"/>
-      <c r="C63" s="129"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="70"/>
       <c r="D63" s="18">
         <v>2</v>
       </c>
@@ -3530,11 +3521,11 @@
       <c r="I63" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="J63" s="117"/>
+      <c r="J63" s="82"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B64" s="114"/>
-      <c r="C64" s="129"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="8">
         <v>3</v>
       </c>
@@ -3553,12 +3544,12 @@
       <c r="I64" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="J64" s="117"/>
+      <c r="J64" s="82"/>
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="114"/>
-      <c r="C65" s="129"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="18">
         <v>4</v>
       </c>
@@ -3577,11 +3568,11 @@
       <c r="I65" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="J65" s="117"/>
+      <c r="J65" s="82"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="114"/>
-      <c r="C66" s="129"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="70"/>
       <c r="D66" s="8">
         <v>5</v>
       </c>
@@ -3600,11 +3591,11 @@
       <c r="I66" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="J66" s="117"/>
+      <c r="J66" s="82"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="114"/>
-      <c r="C67" s="129"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="70"/>
       <c r="D67" s="18">
         <v>6</v>
       </c>
@@ -3623,11 +3614,11 @@
       <c r="I67" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="J67" s="117"/>
+      <c r="J67" s="82"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="114"/>
-      <c r="C68" s="129"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="70"/>
       <c r="D68" s="8">
         <v>7</v>
       </c>
@@ -3646,11 +3637,11 @@
       <c r="I68" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="J68" s="117"/>
+      <c r="J68" s="82"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="114"/>
-      <c r="C69" s="129"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="70"/>
       <c r="D69" s="18">
         <v>8</v>
       </c>
@@ -3669,11 +3660,11 @@
       <c r="I69" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="J69" s="117"/>
+      <c r="J69" s="82"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="114"/>
-      <c r="C70" s="129"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="70"/>
       <c r="D70" s="8">
         <v>9</v>
       </c>
@@ -3692,11 +3683,11 @@
       <c r="I70" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J70" s="117"/>
+      <c r="J70" s="82"/>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="114"/>
-      <c r="C71" s="130"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="71"/>
       <c r="D71" s="19">
         <v>10</v>
       </c>
@@ -3711,11 +3702,11 @@
       <c r="I71" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="J71" s="117"/>
+      <c r="J71" s="82"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="114"/>
-      <c r="C72" s="131" t="s">
+      <c r="B72" s="94"/>
+      <c r="C72" s="88" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="10">
@@ -3736,11 +3727,11 @@
       <c r="I72" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J72" s="117"/>
+      <c r="J72" s="82"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="114"/>
-      <c r="C73" s="132"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="89"/>
       <c r="D73" s="18">
         <v>1</v>
       </c>
@@ -3759,11 +3750,11 @@
       <c r="I73" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J73" s="117"/>
+      <c r="J73" s="82"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="114"/>
-      <c r="C74" s="132"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="8">
         <v>2</v>
       </c>
@@ -3782,11 +3773,11 @@
       <c r="I74" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="J74" s="117"/>
+      <c r="J74" s="82"/>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="114"/>
-      <c r="C75" s="133"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="19">
         <v>3</v>
       </c>
@@ -3805,11 +3796,11 @@
       <c r="I75" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J75" s="117"/>
+      <c r="J75" s="82"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="114"/>
-      <c r="C76" s="85" t="s">
+      <c r="B76" s="94"/>
+      <c r="C76" s="91" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="10">
@@ -3830,11 +3821,11 @@
       <c r="I76" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="J76" s="117"/>
+      <c r="J76" s="82"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="114"/>
-      <c r="C77" s="86"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="96"/>
       <c r="D77" s="18">
         <v>1</v>
       </c>
@@ -3853,11 +3844,11 @@
       <c r="I77" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J77" s="117"/>
+      <c r="J77" s="82"/>
     </row>
     <row r="78" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="115"/>
-      <c r="C78" s="87"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="92"/>
       <c r="D78" s="9">
         <v>2</v>
       </c>
@@ -3876,13 +3867,13 @@
       <c r="I78" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="118"/>
+      <c r="J78" s="83"/>
     </row>
     <row r="79" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="103">
+      <c r="B79" s="64">
         <v>5</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="C79" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D79" s="17">
@@ -3903,13 +3894,13 @@
       <c r="I79" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J79" s="119" t="s">
+      <c r="J79" s="97" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="104"/>
-      <c r="C80" s="89"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="101"/>
       <c r="D80" s="8">
         <v>1</v>
       </c>
@@ -3928,11 +3919,11 @@
       <c r="I80" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J80" s="120"/>
+      <c r="J80" s="98"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="104"/>
-      <c r="C81" s="89"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="101"/>
       <c r="D81" s="18">
         <v>2</v>
       </c>
@@ -3951,11 +3942,11 @@
       <c r="I81" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J81" s="120"/>
+      <c r="J81" s="98"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="104"/>
-      <c r="C82" s="89"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="101"/>
       <c r="D82" s="8">
         <v>3</v>
       </c>
@@ -3974,11 +3965,11 @@
       <c r="I82" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J82" s="120"/>
+      <c r="J82" s="98"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="104"/>
-      <c r="C83" s="89"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="101"/>
       <c r="D83" s="18">
         <v>4</v>
       </c>
@@ -3997,11 +3988,11 @@
       <c r="I83" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J83" s="120"/>
+      <c r="J83" s="98"/>
     </row>
     <row r="84" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="104"/>
-      <c r="C84" s="90"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="102"/>
       <c r="D84" s="9">
         <v>5</v>
       </c>
@@ -4020,11 +4011,11 @@
       <c r="I84" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="J84" s="120"/>
+      <c r="J84" s="98"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="104"/>
-      <c r="C85" s="76" t="s">
+      <c r="B85" s="65"/>
+      <c r="C85" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="17">
@@ -4045,11 +4036,11 @@
       <c r="I85" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J85" s="120"/>
+      <c r="J85" s="98"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="104"/>
-      <c r="C86" s="77"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="104"/>
       <c r="D86" s="8">
         <v>1</v>
       </c>
@@ -4068,11 +4059,11 @@
       <c r="I86" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J86" s="120"/>
+      <c r="J86" s="98"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B87" s="104"/>
-      <c r="C87" s="77"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="104"/>
       <c r="D87" s="18">
         <v>2</v>
       </c>
@@ -4091,11 +4082,11 @@
       <c r="I87" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="J87" s="120"/>
+      <c r="J87" s="98"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B88" s="104"/>
-      <c r="C88" s="77"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="104"/>
       <c r="D88" s="8">
         <v>3</v>
       </c>
@@ -4114,11 +4105,11 @@
       <c r="I88" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J88" s="120"/>
+      <c r="J88" s="98"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="104"/>
-      <c r="C89" s="77"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="104"/>
       <c r="D89" s="18">
         <v>4</v>
       </c>
@@ -4137,11 +4128,11 @@
       <c r="I89" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="J89" s="120"/>
+      <c r="J89" s="98"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="104"/>
-      <c r="C90" s="77"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="104"/>
       <c r="D90" s="8">
         <v>5</v>
       </c>
@@ -4160,11 +4151,11 @@
       <c r="I90" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="J90" s="120"/>
+      <c r="J90" s="98"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B91" s="104"/>
-      <c r="C91" s="77"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="104"/>
       <c r="D91" s="18">
         <v>6</v>
       </c>
@@ -4183,11 +4174,11 @@
       <c r="I91" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="J91" s="120"/>
+      <c r="J91" s="98"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B92" s="104"/>
-      <c r="C92" s="77"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="104"/>
       <c r="D92" s="8">
         <v>7</v>
       </c>
@@ -4206,11 +4197,11 @@
       <c r="I92" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="J92" s="120"/>
+      <c r="J92" s="98"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B93" s="104"/>
-      <c r="C93" s="77"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="104"/>
       <c r="D93" s="18">
         <v>8</v>
       </c>
@@ -4229,11 +4220,11 @@
       <c r="I93" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="J93" s="120"/>
+      <c r="J93" s="98"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B94" s="104"/>
-      <c r="C94" s="77"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="104"/>
       <c r="D94" s="8">
         <v>9</v>
       </c>
@@ -4252,11 +4243,11 @@
       <c r="I94" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J94" s="120"/>
+      <c r="J94" s="98"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B95" s="104"/>
-      <c r="C95" s="77"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="104"/>
       <c r="D95" s="18">
         <v>10</v>
       </c>
@@ -4275,11 +4266,11 @@
       <c r="I95" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="J95" s="120"/>
+      <c r="J95" s="98"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B96" s="104"/>
-      <c r="C96" s="77"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="104"/>
       <c r="D96" s="8">
         <v>11</v>
       </c>
@@ -4298,11 +4289,11 @@
       <c r="I96" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="J96" s="120"/>
+      <c r="J96" s="98"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B97" s="104"/>
-      <c r="C97" s="77"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="104"/>
       <c r="D97" s="18">
         <v>12</v>
       </c>
@@ -4321,11 +4312,11 @@
       <c r="I97" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="J97" s="120"/>
+      <c r="J97" s="98"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B98" s="104"/>
-      <c r="C98" s="77"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="104"/>
       <c r="D98" s="8">
         <v>13</v>
       </c>
@@ -4344,11 +4335,11 @@
       <c r="I98" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="J98" s="120"/>
+      <c r="J98" s="98"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B99" s="104"/>
-      <c r="C99" s="77"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="104"/>
       <c r="D99" s="18">
         <v>14</v>
       </c>
@@ -4367,11 +4358,11 @@
       <c r="I99" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="J99" s="120"/>
+      <c r="J99" s="98"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B100" s="104"/>
-      <c r="C100" s="77"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="104"/>
       <c r="D100" s="8">
         <v>15</v>
       </c>
@@ -4390,11 +4381,11 @@
       <c r="I100" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J100" s="120"/>
+      <c r="J100" s="98"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B101" s="104"/>
-      <c r="C101" s="77"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="104"/>
       <c r="D101" s="18">
         <v>16</v>
       </c>
@@ -4409,11 +4400,11 @@
       <c r="I101" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="J101" s="120"/>
+      <c r="J101" s="98"/>
     </row>
     <row r="102" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="104"/>
-      <c r="C102" s="78"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="105"/>
       <c r="D102" s="9">
         <v>17</v>
       </c>
@@ -4432,11 +4423,11 @@
       <c r="I102" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="J102" s="120"/>
+      <c r="J102" s="98"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B103" s="104"/>
-      <c r="C103" s="91" t="s">
+      <c r="B103" s="65"/>
+      <c r="C103" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="17">
@@ -4457,11 +4448,11 @@
       <c r="I103" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="J103" s="120"/>
+      <c r="J103" s="98"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B104" s="104"/>
-      <c r="C104" s="92"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="108"/>
       <c r="D104" s="8">
         <v>1</v>
       </c>
@@ -4480,11 +4471,11 @@
       <c r="I104" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="J104" s="120"/>
+      <c r="J104" s="98"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B105" s="104"/>
-      <c r="C105" s="92"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="108"/>
       <c r="D105" s="18">
         <v>2</v>
       </c>
@@ -4503,11 +4494,11 @@
       <c r="I105" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="J105" s="120"/>
+      <c r="J105" s="98"/>
     </row>
     <row r="106" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="104"/>
-      <c r="C106" s="93"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="107"/>
       <c r="D106" s="9">
         <v>3</v>
       </c>
@@ -4526,11 +4517,11 @@
       <c r="I106" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="J106" s="120"/>
+      <c r="J106" s="98"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B107" s="104"/>
-      <c r="C107" s="94" t="s">
+      <c r="B107" s="65"/>
+      <c r="C107" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="17">
@@ -4551,11 +4542,11 @@
       <c r="I107" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J107" s="120"/>
+      <c r="J107" s="98"/>
     </row>
     <row r="108" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="105"/>
-      <c r="C108" s="96"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="110"/>
       <c r="D108" s="9">
         <v>1</v>
       </c>
@@ -4574,13 +4565,13 @@
       <c r="I108" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J108" s="121"/>
+      <c r="J108" s="99"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" s="113">
-        <v>6</v>
-      </c>
-      <c r="C109" s="88" t="s">
+      <c r="B109" s="93">
+        <v>6</v>
+      </c>
+      <c r="C109" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D109" s="17">
@@ -4601,13 +4592,13 @@
       <c r="I109" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="J109" s="116" t="s">
+      <c r="J109" s="81" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="114"/>
-      <c r="C110" s="89"/>
+      <c r="B110" s="94"/>
+      <c r="C110" s="101"/>
       <c r="D110" s="8">
         <v>1</v>
       </c>
@@ -4626,11 +4617,11 @@
       <c r="I110" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J110" s="117"/>
+      <c r="J110" s="82"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B111" s="114"/>
-      <c r="C111" s="89"/>
+      <c r="B111" s="94"/>
+      <c r="C111" s="101"/>
       <c r="D111" s="18">
         <v>2</v>
       </c>
@@ -4649,11 +4640,11 @@
       <c r="I111" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J111" s="117"/>
+      <c r="J111" s="82"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B112" s="114"/>
-      <c r="C112" s="89"/>
+      <c r="B112" s="94"/>
+      <c r="C112" s="101"/>
       <c r="D112" s="8">
         <v>3</v>
       </c>
@@ -4672,11 +4663,11 @@
       <c r="I112" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J112" s="117"/>
+      <c r="J112" s="82"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B113" s="114"/>
-      <c r="C113" s="89"/>
+      <c r="B113" s="94"/>
+      <c r="C113" s="101"/>
       <c r="D113" s="18">
         <v>4</v>
       </c>
@@ -4695,11 +4686,11 @@
       <c r="I113" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J113" s="117"/>
+      <c r="J113" s="82"/>
     </row>
     <row r="114" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="114"/>
-      <c r="C114" s="90"/>
+      <c r="B114" s="94"/>
+      <c r="C114" s="102"/>
       <c r="D114" s="9">
         <v>5</v>
       </c>
@@ -4718,11 +4709,11 @@
       <c r="I114" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="J114" s="117"/>
+      <c r="J114" s="82"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B115" s="114"/>
-      <c r="C115" s="76" t="s">
+      <c r="B115" s="94"/>
+      <c r="C115" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="17">
@@ -4743,11 +4734,11 @@
       <c r="I115" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="J115" s="117"/>
+      <c r="J115" s="82"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B116" s="114"/>
-      <c r="C116" s="77"/>
+      <c r="B116" s="94"/>
+      <c r="C116" s="104"/>
       <c r="D116" s="8">
         <v>1</v>
       </c>
@@ -4766,11 +4757,11 @@
       <c r="I116" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="J116" s="117"/>
+      <c r="J116" s="82"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B117" s="114"/>
-      <c r="C117" s="77"/>
+      <c r="B117" s="94"/>
+      <c r="C117" s="104"/>
       <c r="D117" s="18">
         <v>2</v>
       </c>
@@ -4789,11 +4780,11 @@
       <c r="I117" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="J117" s="117"/>
+      <c r="J117" s="82"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B118" s="114"/>
-      <c r="C118" s="77"/>
+      <c r="B118" s="94"/>
+      <c r="C118" s="104"/>
       <c r="D118" s="8">
         <v>3</v>
       </c>
@@ -4812,11 +4803,11 @@
       <c r="I118" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J118" s="117"/>
+      <c r="J118" s="82"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B119" s="114"/>
-      <c r="C119" s="77"/>
+      <c r="B119" s="94"/>
+      <c r="C119" s="104"/>
       <c r="D119" s="18">
         <v>4</v>
       </c>
@@ -4835,11 +4826,11 @@
       <c r="I119" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="J119" s="117"/>
+      <c r="J119" s="82"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B120" s="114"/>
-      <c r="C120" s="77"/>
+      <c r="B120" s="94"/>
+      <c r="C120" s="104"/>
       <c r="D120" s="8">
         <v>5</v>
       </c>
@@ -4858,11 +4849,11 @@
       <c r="I120" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="J120" s="117"/>
+      <c r="J120" s="82"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B121" s="114"/>
-      <c r="C121" s="77"/>
+      <c r="B121" s="94"/>
+      <c r="C121" s="104"/>
       <c r="D121" s="18">
         <v>6</v>
       </c>
@@ -4881,11 +4872,11 @@
       <c r="I121" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="J121" s="117"/>
+      <c r="J121" s="82"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B122" s="114"/>
-      <c r="C122" s="77"/>
+      <c r="B122" s="94"/>
+      <c r="C122" s="104"/>
       <c r="D122" s="8">
         <v>7</v>
       </c>
@@ -4904,11 +4895,11 @@
       <c r="I122" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="J122" s="117"/>
+      <c r="J122" s="82"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B123" s="114"/>
-      <c r="C123" s="77"/>
+      <c r="B123" s="94"/>
+      <c r="C123" s="104"/>
       <c r="D123" s="18">
         <v>8</v>
       </c>
@@ -4927,11 +4918,11 @@
       <c r="I123" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J123" s="117"/>
+      <c r="J123" s="82"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B124" s="114"/>
-      <c r="C124" s="77"/>
+      <c r="B124" s="94"/>
+      <c r="C124" s="104"/>
       <c r="D124" s="8">
         <v>9</v>
       </c>
@@ -4950,11 +4941,11 @@
       <c r="I124" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="J124" s="117"/>
+      <c r="J124" s="82"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B125" s="114"/>
-      <c r="C125" s="77"/>
+      <c r="B125" s="94"/>
+      <c r="C125" s="104"/>
       <c r="D125" s="18">
         <v>10</v>
       </c>
@@ -4973,11 +4964,11 @@
       <c r="I125" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="J125" s="117"/>
+      <c r="J125" s="82"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B126" s="114"/>
-      <c r="C126" s="77"/>
+      <c r="B126" s="94"/>
+      <c r="C126" s="104"/>
       <c r="D126" s="8">
         <v>11</v>
       </c>
@@ -4996,11 +4987,11 @@
       <c r="I126" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J126" s="117"/>
+      <c r="J126" s="82"/>
     </row>
     <row r="127" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="114"/>
-      <c r="C127" s="78"/>
+      <c r="B127" s="94"/>
+      <c r="C127" s="105"/>
       <c r="D127" s="19">
         <v>12</v>
       </c>
@@ -5015,11 +5006,11 @@
       <c r="I127" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="J127" s="117"/>
+      <c r="J127" s="82"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B128" s="114"/>
-      <c r="C128" s="91" t="s">
+      <c r="B128" s="94"/>
+      <c r="C128" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="10">
@@ -5040,11 +5031,11 @@
       <c r="I128" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="J128" s="117"/>
+      <c r="J128" s="82"/>
     </row>
     <row r="129" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="114"/>
-      <c r="C129" s="93"/>
+      <c r="B129" s="94"/>
+      <c r="C129" s="107"/>
       <c r="D129" s="19">
         <v>1</v>
       </c>
@@ -5063,11 +5054,11 @@
       <c r="I129" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J129" s="117"/>
+      <c r="J129" s="82"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B130" s="114"/>
-      <c r="C130" s="85" t="s">
+      <c r="B130" s="94"/>
+      <c r="C130" s="91" t="s">
         <v>19</v>
       </c>
       <c r="D130" s="10">
@@ -5088,11 +5079,11 @@
       <c r="I130" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="J130" s="117"/>
+      <c r="J130" s="82"/>
     </row>
     <row r="131" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="115"/>
-      <c r="C131" s="87"/>
+      <c r="B131" s="95"/>
+      <c r="C131" s="92"/>
       <c r="D131" s="19">
         <v>1</v>
       </c>
@@ -5111,13 +5102,13 @@
       <c r="I131" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="J131" s="118"/>
+      <c r="J131" s="83"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B132" s="103">
+      <c r="B132" s="64">
         <v>7</v>
       </c>
-      <c r="C132" s="88" t="s">
+      <c r="C132" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D132" s="10">
@@ -5138,13 +5129,13 @@
       <c r="I132" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J132" s="106" t="s">
+      <c r="J132" s="72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B133" s="104"/>
-      <c r="C133" s="89"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="101"/>
       <c r="D133" s="18">
         <v>1</v>
       </c>
@@ -5163,11 +5154,11 @@
       <c r="I133" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J133" s="107"/>
+      <c r="J133" s="73"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B134" s="104"/>
-      <c r="C134" s="89"/>
+      <c r="B134" s="65"/>
+      <c r="C134" s="101"/>
       <c r="D134" s="8">
         <v>2</v>
       </c>
@@ -5186,11 +5177,11 @@
       <c r="I134" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J134" s="107"/>
+      <c r="J134" s="73"/>
     </row>
     <row r="135" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="104"/>
-      <c r="C135" s="90"/>
+      <c r="B135" s="65"/>
+      <c r="C135" s="102"/>
       <c r="D135" s="19">
         <v>3</v>
       </c>
@@ -5209,11 +5200,11 @@
       <c r="I135" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J135" s="107"/>
+      <c r="J135" s="73"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B136" s="104"/>
-      <c r="C136" s="76" t="s">
+      <c r="B136" s="65"/>
+      <c r="C136" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="10">
@@ -5234,11 +5225,11 @@
       <c r="I136" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J136" s="107"/>
+      <c r="J136" s="73"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B137" s="104"/>
-      <c r="C137" s="77"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="104"/>
       <c r="D137" s="18">
         <v>1</v>
       </c>
@@ -5257,11 +5248,11 @@
       <c r="I137" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J137" s="107"/>
+      <c r="J137" s="73"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B138" s="104"/>
-      <c r="C138" s="77"/>
+      <c r="B138" s="65"/>
+      <c r="C138" s="104"/>
       <c r="D138" s="8">
         <v>2</v>
       </c>
@@ -5280,11 +5271,11 @@
       <c r="I138" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J138" s="107"/>
+      <c r="J138" s="73"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B139" s="104"/>
-      <c r="C139" s="77"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="104"/>
       <c r="D139" s="18">
         <v>3</v>
       </c>
@@ -5303,11 +5294,11 @@
       <c r="I139" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="J139" s="107"/>
+      <c r="J139" s="73"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B140" s="104"/>
-      <c r="C140" s="77"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="104"/>
       <c r="D140" s="8">
         <v>4</v>
       </c>
@@ -5326,11 +5317,11 @@
       <c r="I140" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="J140" s="107"/>
+      <c r="J140" s="73"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B141" s="104"/>
-      <c r="C141" s="77"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="104"/>
       <c r="D141" s="18">
         <v>5</v>
       </c>
@@ -5349,11 +5340,11 @@
       <c r="I141" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="J141" s="107"/>
+      <c r="J141" s="73"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B142" s="104"/>
-      <c r="C142" s="77"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="104"/>
       <c r="D142" s="8">
         <v>6</v>
       </c>
@@ -5372,11 +5363,11 @@
       <c r="I142" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="J142" s="107"/>
+      <c r="J142" s="73"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B143" s="104"/>
-      <c r="C143" s="77"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="104"/>
       <c r="D143" s="18">
         <v>7</v>
       </c>
@@ -5395,11 +5386,11 @@
       <c r="I143" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="J143" s="107"/>
+      <c r="J143" s="73"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B144" s="104"/>
-      <c r="C144" s="77"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="104"/>
       <c r="D144" s="8">
         <v>8</v>
       </c>
@@ -5418,11 +5409,11 @@
       <c r="I144" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="J144" s="107"/>
+      <c r="J144" s="73"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B145" s="104"/>
-      <c r="C145" s="77"/>
+      <c r="B145" s="65"/>
+      <c r="C145" s="104"/>
       <c r="D145" s="18">
         <v>9</v>
       </c>
@@ -5437,11 +5428,11 @@
       <c r="I145" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J145" s="107"/>
+      <c r="J145" s="73"/>
     </row>
     <row r="146" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="104"/>
-      <c r="C146" s="78"/>
+      <c r="B146" s="65"/>
+      <c r="C146" s="105"/>
       <c r="D146" s="9">
         <v>10</v>
       </c>
@@ -5460,11 +5451,11 @@
       <c r="I146" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J146" s="107"/>
+      <c r="J146" s="73"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B147" s="104"/>
-      <c r="C147" s="91" t="s">
+      <c r="B147" s="65"/>
+      <c r="C147" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="17">
@@ -5485,11 +5476,11 @@
       <c r="I147" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="J147" s="107"/>
+      <c r="J147" s="73"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B148" s="104"/>
-      <c r="C148" s="92"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="108"/>
       <c r="D148" s="8">
         <v>1</v>
       </c>
@@ -5508,11 +5499,11 @@
       <c r="I148" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="J148" s="107"/>
+      <c r="J148" s="73"/>
     </row>
     <row r="149" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="104"/>
-      <c r="C149" s="93"/>
+      <c r="B149" s="65"/>
+      <c r="C149" s="107"/>
       <c r="D149" s="19">
         <v>2</v>
       </c>
@@ -5531,11 +5522,11 @@
       <c r="I149" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J149" s="107"/>
+      <c r="J149" s="73"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B150" s="104"/>
-      <c r="C150" s="94" t="s">
+      <c r="B150" s="65"/>
+      <c r="C150" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D150" s="10">
@@ -5556,11 +5547,11 @@
       <c r="I150" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="J150" s="107"/>
+      <c r="J150" s="73"/>
     </row>
     <row r="151" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="105"/>
-      <c r="C151" s="96"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="110"/>
       <c r="D151" s="19">
         <v>1</v>
       </c>
@@ -5579,13 +5570,13 @@
       <c r="I151" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J151" s="108"/>
+      <c r="J151" s="74"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B152" s="73">
+      <c r="B152" s="117">
         <v>8</v>
       </c>
-      <c r="C152" s="88" t="s">
+      <c r="C152" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D152" s="10">
@@ -5606,13 +5597,13 @@
       <c r="I152" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J152" s="100" t="s">
+      <c r="J152" s="114" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B153" s="74"/>
-      <c r="C153" s="89"/>
+      <c r="B153" s="118"/>
+      <c r="C153" s="101"/>
       <c r="D153" s="18">
         <v>1</v>
       </c>
@@ -5631,11 +5622,11 @@
       <c r="I153" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J153" s="101"/>
+      <c r="J153" s="115"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B154" s="74"/>
-      <c r="C154" s="89"/>
+      <c r="B154" s="118"/>
+      <c r="C154" s="101"/>
       <c r="D154" s="8">
         <v>2</v>
       </c>
@@ -5654,11 +5645,11 @@
       <c r="I154" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J154" s="101"/>
+      <c r="J154" s="115"/>
     </row>
     <row r="155" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="74"/>
-      <c r="C155" s="90"/>
+      <c r="B155" s="118"/>
+      <c r="C155" s="102"/>
       <c r="D155" s="19">
         <v>3</v>
       </c>
@@ -5677,11 +5668,11 @@
       <c r="I155" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J155" s="101"/>
+      <c r="J155" s="115"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B156" s="74"/>
-      <c r="C156" s="76" t="s">
+      <c r="B156" s="118"/>
+      <c r="C156" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="10">
@@ -5702,11 +5693,11 @@
       <c r="I156" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="J156" s="101"/>
+      <c r="J156" s="115"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B157" s="74"/>
-      <c r="C157" s="77"/>
+      <c r="B157" s="118"/>
+      <c r="C157" s="104"/>
       <c r="D157" s="18">
         <v>1</v>
       </c>
@@ -5725,11 +5716,11 @@
       <c r="I157" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J157" s="101"/>
+      <c r="J157" s="115"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B158" s="74"/>
-      <c r="C158" s="77"/>
+      <c r="B158" s="118"/>
+      <c r="C158" s="104"/>
       <c r="D158" s="8">
         <v>2</v>
       </c>
@@ -5748,11 +5739,11 @@
       <c r="I158" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="J158" s="101"/>
+      <c r="J158" s="115"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B159" s="74"/>
-      <c r="C159" s="77"/>
+      <c r="B159" s="118"/>
+      <c r="C159" s="104"/>
       <c r="D159" s="18">
         <v>3</v>
       </c>
@@ -5771,11 +5762,11 @@
       <c r="I159" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="J159" s="101"/>
+      <c r="J159" s="115"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B160" s="74"/>
-      <c r="C160" s="77"/>
+      <c r="B160" s="118"/>
+      <c r="C160" s="104"/>
       <c r="D160" s="8">
         <v>4</v>
       </c>
@@ -5794,11 +5785,11 @@
       <c r="I160" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J160" s="101"/>
+      <c r="J160" s="115"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B161" s="74"/>
-      <c r="C161" s="77"/>
+      <c r="B161" s="118"/>
+      <c r="C161" s="104"/>
       <c r="D161" s="18">
         <v>5</v>
       </c>
@@ -5817,11 +5808,11 @@
       <c r="I161" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="J161" s="101"/>
+      <c r="J161" s="115"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B162" s="74"/>
-      <c r="C162" s="77"/>
+      <c r="B162" s="118"/>
+      <c r="C162" s="104"/>
       <c r="D162" s="8">
         <v>6</v>
       </c>
@@ -5840,11 +5831,11 @@
       <c r="I162" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="J162" s="101"/>
+      <c r="J162" s="115"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B163" s="74"/>
-      <c r="C163" s="77"/>
+      <c r="B163" s="118"/>
+      <c r="C163" s="104"/>
       <c r="D163" s="18">
         <v>7</v>
       </c>
@@ -5863,11 +5854,11 @@
       <c r="I163" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="J163" s="101"/>
+      <c r="J163" s="115"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B164" s="74"/>
-      <c r="C164" s="77"/>
+      <c r="B164" s="118"/>
+      <c r="C164" s="104"/>
       <c r="D164" s="8">
         <v>8</v>
       </c>
@@ -5886,11 +5877,11 @@
       <c r="I164" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="J164" s="101"/>
+      <c r="J164" s="115"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B165" s="74"/>
-      <c r="C165" s="77"/>
+      <c r="B165" s="118"/>
+      <c r="C165" s="104"/>
       <c r="D165" s="18">
         <v>9</v>
       </c>
@@ -5909,11 +5900,11 @@
       <c r="I165" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="J165" s="101"/>
+      <c r="J165" s="115"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B166" s="74"/>
-      <c r="C166" s="77"/>
+      <c r="B166" s="118"/>
+      <c r="C166" s="104"/>
       <c r="D166" s="8">
         <v>10</v>
       </c>
@@ -5928,11 +5919,11 @@
       <c r="I166" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J166" s="101"/>
+      <c r="J166" s="115"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B167" s="74"/>
-      <c r="C167" s="77"/>
+      <c r="B167" s="118"/>
+      <c r="C167" s="104"/>
       <c r="D167" s="18">
         <v>11</v>
       </c>
@@ -5947,11 +5938,11 @@
       <c r="I167" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="J167" s="101"/>
+      <c r="J167" s="115"/>
     </row>
     <row r="168" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="74"/>
-      <c r="C168" s="78"/>
+      <c r="B168" s="118"/>
+      <c r="C168" s="105"/>
       <c r="D168" s="9">
         <v>12</v>
       </c>
@@ -5970,11 +5961,11 @@
       <c r="I168" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J168" s="101"/>
+      <c r="J168" s="115"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B169" s="74"/>
-      <c r="C169" s="91" t="s">
+      <c r="B169" s="118"/>
+      <c r="C169" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D169" s="17">
@@ -5995,11 +5986,11 @@
       <c r="I169" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="J169" s="101"/>
+      <c r="J169" s="115"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B170" s="74"/>
-      <c r="C170" s="92"/>
+      <c r="B170" s="118"/>
+      <c r="C170" s="108"/>
       <c r="D170" s="8">
         <v>1</v>
       </c>
@@ -6018,11 +6009,11 @@
       <c r="I170" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="J170" s="101"/>
+      <c r="J170" s="115"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B171" s="74"/>
-      <c r="C171" s="92"/>
+      <c r="B171" s="118"/>
+      <c r="C171" s="108"/>
       <c r="D171" s="18">
         <v>2</v>
       </c>
@@ -6041,11 +6032,11 @@
       <c r="I171" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="J171" s="101"/>
+      <c r="J171" s="115"/>
     </row>
     <row r="172" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="74"/>
-      <c r="C172" s="93"/>
+      <c r="B172" s="118"/>
+      <c r="C172" s="107"/>
       <c r="D172" s="9">
         <v>3</v>
       </c>
@@ -6064,11 +6055,11 @@
       <c r="I172" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="J172" s="101"/>
+      <c r="J172" s="115"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B173" s="74"/>
-      <c r="C173" s="94" t="s">
+      <c r="B173" s="118"/>
+      <c r="C173" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D173" s="17">
@@ -6089,11 +6080,11 @@
       <c r="I173" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="J173" s="101"/>
+      <c r="J173" s="115"/>
     </row>
     <row r="174" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="75"/>
-      <c r="C174" s="96"/>
+      <c r="B174" s="119"/>
+      <c r="C174" s="110"/>
       <c r="D174" s="9">
         <v>1</v>
       </c>
@@ -6112,13 +6103,13 @@
       <c r="I174" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J174" s="102"/>
+      <c r="J174" s="116"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B175" s="103">
+      <c r="B175" s="64">
         <v>9</v>
       </c>
-      <c r="C175" s="88" t="s">
+      <c r="C175" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D175" s="17">
@@ -6139,13 +6130,13 @@
       <c r="I175" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="J175" s="106" t="s">
+      <c r="J175" s="72" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B176" s="104"/>
-      <c r="C176" s="89"/>
+      <c r="B176" s="65"/>
+      <c r="C176" s="101"/>
       <c r="D176" s="8">
         <v>1</v>
       </c>
@@ -6164,11 +6155,11 @@
       <c r="I176" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="J176" s="107"/>
+      <c r="J176" s="73"/>
     </row>
     <row r="177" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="104"/>
-      <c r="C177" s="90"/>
+      <c r="B177" s="65"/>
+      <c r="C177" s="102"/>
       <c r="D177" s="19">
         <v>2</v>
       </c>
@@ -6187,11 +6178,11 @@
       <c r="I177" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J177" s="107"/>
+      <c r="J177" s="73"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B178" s="104"/>
-      <c r="C178" s="76" t="s">
+      <c r="B178" s="65"/>
+      <c r="C178" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D178" s="10">
@@ -6212,11 +6203,11 @@
       <c r="I178" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="J178" s="107"/>
+      <c r="J178" s="73"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B179" s="104"/>
-      <c r="C179" s="77"/>
+      <c r="B179" s="65"/>
+      <c r="C179" s="104"/>
       <c r="D179" s="18">
         <v>1</v>
       </c>
@@ -6235,11 +6226,11 @@
       <c r="I179" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="J179" s="107"/>
+      <c r="J179" s="73"/>
     </row>
     <row r="180" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="104"/>
-      <c r="C180" s="78"/>
+      <c r="B180" s="65"/>
+      <c r="C180" s="105"/>
       <c r="D180" s="9">
         <v>2</v>
       </c>
@@ -6258,11 +6249,11 @@
       <c r="I180" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J180" s="107"/>
+      <c r="J180" s="73"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B181" s="104"/>
-      <c r="C181" s="91" t="s">
+      <c r="B181" s="65"/>
+      <c r="C181" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="17">
@@ -6283,11 +6274,11 @@
       <c r="I181" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="J181" s="107"/>
+      <c r="J181" s="73"/>
     </row>
     <row r="182" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="104"/>
-      <c r="C182" s="93"/>
+      <c r="B182" s="65"/>
+      <c r="C182" s="107"/>
       <c r="D182" s="9">
         <v>1</v>
       </c>
@@ -6306,11 +6297,11 @@
       <c r="I182" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="J182" s="107"/>
+      <c r="J182" s="73"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B183" s="104"/>
-      <c r="C183" s="94" t="s">
+      <c r="B183" s="65"/>
+      <c r="C183" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D183" s="17">
@@ -6331,11 +6322,11 @@
       <c r="I183" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="J183" s="107"/>
+      <c r="J183" s="73"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B184" s="104"/>
-      <c r="C184" s="95"/>
+      <c r="B184" s="65"/>
+      <c r="C184" s="120"/>
       <c r="D184" s="8">
         <v>1</v>
       </c>
@@ -6354,11 +6345,11 @@
       <c r="I184" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="J184" s="107"/>
+      <c r="J184" s="73"/>
     </row>
     <row r="185" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="105"/>
-      <c r="C185" s="96"/>
+      <c r="B185" s="66"/>
+      <c r="C185" s="110"/>
       <c r="D185" s="19">
         <v>2</v>
       </c>
@@ -6377,13 +6368,13 @@
       <c r="I185" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J185" s="108"/>
+      <c r="J185" s="74"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B186" s="109">
+      <c r="B186" s="111">
         <v>10</v>
       </c>
-      <c r="C186" s="88" t="s">
+      <c r="C186" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D186" s="10">
@@ -6404,13 +6395,13 @@
       <c r="I186" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J186" s="100" t="s">
+      <c r="J186" s="114" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B187" s="110"/>
-      <c r="C187" s="89"/>
+      <c r="B187" s="112"/>
+      <c r="C187" s="101"/>
       <c r="D187" s="18">
         <v>1</v>
       </c>
@@ -6429,11 +6420,11 @@
       <c r="I187" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J187" s="101"/>
+      <c r="J187" s="115"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B188" s="110"/>
-      <c r="C188" s="89"/>
+      <c r="B188" s="112"/>
+      <c r="C188" s="101"/>
       <c r="D188" s="8">
         <v>2</v>
       </c>
@@ -6452,11 +6443,11 @@
       <c r="I188" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J188" s="101"/>
+      <c r="J188" s="115"/>
     </row>
     <row r="189" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="110"/>
-      <c r="C189" s="90"/>
+      <c r="B189" s="112"/>
+      <c r="C189" s="102"/>
       <c r="D189" s="19">
         <v>3</v>
       </c>
@@ -6475,11 +6466,11 @@
       <c r="I189" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J189" s="101"/>
+      <c r="J189" s="115"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B190" s="110"/>
-      <c r="C190" s="76" t="s">
+      <c r="B190" s="112"/>
+      <c r="C190" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D190" s="10">
@@ -6500,11 +6491,11 @@
       <c r="I190" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J190" s="101"/>
+      <c r="J190" s="115"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B191" s="110"/>
-      <c r="C191" s="77"/>
+      <c r="B191" s="112"/>
+      <c r="C191" s="104"/>
       <c r="D191" s="18">
         <v>1</v>
       </c>
@@ -6523,11 +6514,11 @@
       <c r="I191" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J191" s="101"/>
+      <c r="J191" s="115"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B192" s="110"/>
-      <c r="C192" s="77"/>
+      <c r="B192" s="112"/>
+      <c r="C192" s="104"/>
       <c r="D192" s="8">
         <v>2</v>
       </c>
@@ -6546,11 +6537,11 @@
       <c r="I192" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="J192" s="101"/>
+      <c r="J192" s="115"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B193" s="110"/>
-      <c r="C193" s="77"/>
+      <c r="B193" s="112"/>
+      <c r="C193" s="104"/>
       <c r="D193" s="18">
         <v>3</v>
       </c>
@@ -6569,11 +6560,11 @@
       <c r="I193" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="J193" s="101"/>
+      <c r="J193" s="115"/>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B194" s="110"/>
-      <c r="C194" s="77"/>
+      <c r="B194" s="112"/>
+      <c r="C194" s="104"/>
       <c r="D194" s="8">
         <v>4</v>
       </c>
@@ -6592,11 +6583,11 @@
       <c r="I194" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J194" s="101"/>
+      <c r="J194" s="115"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B195" s="110"/>
-      <c r="C195" s="77"/>
+      <c r="B195" s="112"/>
+      <c r="C195" s="104"/>
       <c r="D195" s="18">
         <v>5</v>
       </c>
@@ -6615,11 +6606,11 @@
       <c r="I195" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="J195" s="101"/>
+      <c r="J195" s="115"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B196" s="110"/>
-      <c r="C196" s="77"/>
+      <c r="B196" s="112"/>
+      <c r="C196" s="104"/>
       <c r="D196" s="8">
         <v>6</v>
       </c>
@@ -6638,11 +6629,11 @@
       <c r="I196" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J196" s="101"/>
+      <c r="J196" s="115"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B197" s="110"/>
-      <c r="C197" s="77"/>
+      <c r="B197" s="112"/>
+      <c r="C197" s="104"/>
       <c r="D197" s="18">
         <v>7</v>
       </c>
@@ -6661,11 +6652,11 @@
       <c r="I197" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="J197" s="101"/>
+      <c r="J197" s="115"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B198" s="110"/>
-      <c r="C198" s="77"/>
+      <c r="B198" s="112"/>
+      <c r="C198" s="104"/>
       <c r="D198" s="8">
         <v>8</v>
       </c>
@@ -6684,11 +6675,11 @@
       <c r="I198" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="J198" s="101"/>
+      <c r="J198" s="115"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B199" s="110"/>
-      <c r="C199" s="77"/>
+      <c r="B199" s="112"/>
+      <c r="C199" s="104"/>
       <c r="D199" s="18">
         <v>9</v>
       </c>
@@ -6707,11 +6698,11 @@
       <c r="I199" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="J199" s="101"/>
+      <c r="J199" s="115"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B200" s="110"/>
-      <c r="C200" s="77"/>
+      <c r="B200" s="112"/>
+      <c r="C200" s="104"/>
       <c r="D200" s="8">
         <v>10</v>
       </c>
@@ -6726,11 +6717,11 @@
       <c r="I200" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J200" s="101"/>
+      <c r="J200" s="115"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B201" s="110"/>
-      <c r="C201" s="77"/>
+      <c r="B201" s="112"/>
+      <c r="C201" s="104"/>
       <c r="D201" s="18">
         <v>11</v>
       </c>
@@ -6745,11 +6736,11 @@
       <c r="I201" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="J201" s="101"/>
+      <c r="J201" s="115"/>
     </row>
     <row r="202" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="110"/>
-      <c r="C202" s="78"/>
+      <c r="B202" s="112"/>
+      <c r="C202" s="105"/>
       <c r="D202" s="9">
         <v>12</v>
       </c>
@@ -6768,11 +6759,11 @@
       <c r="I202" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J202" s="101"/>
+      <c r="J202" s="115"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B203" s="110"/>
-      <c r="C203" s="91" t="s">
+      <c r="B203" s="112"/>
+      <c r="C203" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D203" s="17">
@@ -6793,11 +6784,11 @@
       <c r="I203" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="J203" s="101"/>
+      <c r="J203" s="115"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B204" s="110"/>
-      <c r="C204" s="92"/>
+      <c r="B204" s="112"/>
+      <c r="C204" s="108"/>
       <c r="D204" s="8">
         <v>1</v>
       </c>
@@ -6816,11 +6807,11 @@
       <c r="I204" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="J204" s="101"/>
+      <c r="J204" s="115"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B205" s="110"/>
-      <c r="C205" s="92"/>
+      <c r="B205" s="112"/>
+      <c r="C205" s="108"/>
       <c r="D205" s="18">
         <v>2</v>
       </c>
@@ -6839,11 +6830,11 @@
       <c r="I205" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="J205" s="101"/>
+      <c r="J205" s="115"/>
     </row>
     <row r="206" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="110"/>
-      <c r="C206" s="93"/>
+      <c r="B206" s="112"/>
+      <c r="C206" s="107"/>
       <c r="D206" s="9">
         <v>3</v>
       </c>
@@ -6862,11 +6853,11 @@
       <c r="I206" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="J206" s="101"/>
+      <c r="J206" s="115"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B207" s="110"/>
-      <c r="C207" s="94" t="s">
+      <c r="B207" s="112"/>
+      <c r="C207" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D207" s="17">
@@ -6887,11 +6878,11 @@
       <c r="I207" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J207" s="101"/>
+      <c r="J207" s="115"/>
     </row>
     <row r="208" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="111"/>
-      <c r="C208" s="96"/>
+      <c r="B208" s="113"/>
+      <c r="C208" s="110"/>
       <c r="D208" s="9">
         <v>1</v>
       </c>
@@ -6910,13 +6901,13 @@
       <c r="I208" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J208" s="102"/>
+      <c r="J208" s="116"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B209" s="103">
+      <c r="B209" s="64">
         <v>11</v>
       </c>
-      <c r="C209" s="88" t="s">
+      <c r="C209" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D209" s="17">
@@ -6937,13 +6928,13 @@
       <c r="I209" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J209" s="112" t="s">
+      <c r="J209" s="121" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="210" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="104"/>
-      <c r="C210" s="90"/>
+      <c r="B210" s="65"/>
+      <c r="C210" s="102"/>
       <c r="D210" s="9">
         <v>1</v>
       </c>
@@ -6962,11 +6953,11 @@
       <c r="I210" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J210" s="107"/>
+      <c r="J210" s="73"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B211" s="104"/>
-      <c r="C211" s="76" t="s">
+      <c r="B211" s="65"/>
+      <c r="C211" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D211" s="17">
@@ -6987,11 +6978,11 @@
       <c r="I211" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="J211" s="107"/>
+      <c r="J211" s="73"/>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B212" s="104"/>
-      <c r="C212" s="77"/>
+      <c r="B212" s="65"/>
+      <c r="C212" s="104"/>
       <c r="D212" s="8">
         <v>1</v>
       </c>
@@ -7010,11 +7001,11 @@
       <c r="I212" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="J212" s="107"/>
+      <c r="J212" s="73"/>
     </row>
     <row r="213" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="104"/>
-      <c r="C213" s="78"/>
+      <c r="B213" s="65"/>
+      <c r="C213" s="105"/>
       <c r="D213" s="19">
         <v>2</v>
       </c>
@@ -7033,11 +7024,11 @@
       <c r="I213" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J213" s="107"/>
+      <c r="J213" s="73"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B214" s="104"/>
-      <c r="C214" s="91" t="s">
+      <c r="B214" s="65"/>
+      <c r="C214" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D214" s="10">
@@ -7058,11 +7049,11 @@
       <c r="I214" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="J214" s="107"/>
+      <c r="J214" s="73"/>
     </row>
     <row r="215" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="104"/>
-      <c r="C215" s="93"/>
+      <c r="B215" s="65"/>
+      <c r="C215" s="107"/>
       <c r="D215" s="19">
         <v>1</v>
       </c>
@@ -7081,11 +7072,11 @@
       <c r="I215" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J215" s="107"/>
+      <c r="J215" s="73"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B216" s="104"/>
-      <c r="C216" s="94" t="s">
+      <c r="B216" s="65"/>
+      <c r="C216" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D216" s="10">
@@ -7106,11 +7097,11 @@
       <c r="I216" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="J216" s="107"/>
+      <c r="J216" s="73"/>
     </row>
     <row r="217" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="105"/>
-      <c r="C217" s="96"/>
+      <c r="B217" s="66"/>
+      <c r="C217" s="110"/>
       <c r="D217" s="19">
         <v>1</v>
       </c>
@@ -7129,13 +7120,13 @@
       <c r="I217" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J217" s="108"/>
+      <c r="J217" s="74"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B218" s="109">
+      <c r="B218" s="111">
         <v>12</v>
       </c>
-      <c r="C218" s="88" t="s">
+      <c r="C218" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D218" s="10">
@@ -7156,13 +7147,13 @@
       <c r="I218" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J218" s="100" t="s">
+      <c r="J218" s="114" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B219" s="110"/>
-      <c r="C219" s="89"/>
+      <c r="B219" s="112"/>
+      <c r="C219" s="101"/>
       <c r="D219" s="18">
         <v>1</v>
       </c>
@@ -7181,11 +7172,11 @@
       <c r="I219" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J219" s="101"/>
+      <c r="J219" s="115"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B220" s="110"/>
-      <c r="C220" s="89"/>
+      <c r="B220" s="112"/>
+      <c r="C220" s="101"/>
       <c r="D220" s="8">
         <v>2</v>
       </c>
@@ -7204,11 +7195,11 @@
       <c r="I220" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J220" s="101"/>
+      <c r="J220" s="115"/>
     </row>
     <row r="221" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="110"/>
-      <c r="C221" s="90"/>
+      <c r="B221" s="112"/>
+      <c r="C221" s="102"/>
       <c r="D221" s="19">
         <v>3</v>
       </c>
@@ -7227,11 +7218,11 @@
       <c r="I221" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J221" s="101"/>
+      <c r="J221" s="115"/>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B222" s="110"/>
-      <c r="C222" s="76" t="s">
+      <c r="B222" s="112"/>
+      <c r="C222" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D222" s="10">
@@ -7252,11 +7243,11 @@
       <c r="I222" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J222" s="101"/>
+      <c r="J222" s="115"/>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B223" s="110"/>
-      <c r="C223" s="77"/>
+      <c r="B223" s="112"/>
+      <c r="C223" s="104"/>
       <c r="D223" s="18">
         <v>1</v>
       </c>
@@ -7275,11 +7266,11 @@
       <c r="I223" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J223" s="101"/>
+      <c r="J223" s="115"/>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B224" s="110"/>
-      <c r="C224" s="77"/>
+      <c r="B224" s="112"/>
+      <c r="C224" s="104"/>
       <c r="D224" s="8">
         <v>2</v>
       </c>
@@ -7298,11 +7289,11 @@
       <c r="I224" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="J224" s="101"/>
+      <c r="J224" s="115"/>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B225" s="110"/>
-      <c r="C225" s="77"/>
+      <c r="B225" s="112"/>
+      <c r="C225" s="104"/>
       <c r="D225" s="18">
         <v>3</v>
       </c>
@@ -7321,11 +7312,11 @@
       <c r="I225" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="J225" s="101"/>
+      <c r="J225" s="115"/>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B226" s="110"/>
-      <c r="C226" s="77"/>
+      <c r="B226" s="112"/>
+      <c r="C226" s="104"/>
       <c r="D226" s="8">
         <v>4</v>
       </c>
@@ -7344,11 +7335,11 @@
       <c r="I226" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="J226" s="101"/>
+      <c r="J226" s="115"/>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B227" s="110"/>
-      <c r="C227" s="77"/>
+      <c r="B227" s="112"/>
+      <c r="C227" s="104"/>
       <c r="D227" s="18">
         <v>5</v>
       </c>
@@ -7367,11 +7358,11 @@
       <c r="I227" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="J227" s="101"/>
+      <c r="J227" s="115"/>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B228" s="110"/>
-      <c r="C228" s="77"/>
+      <c r="B228" s="112"/>
+      <c r="C228" s="104"/>
       <c r="D228" s="8">
         <v>6</v>
       </c>
@@ -7390,11 +7381,11 @@
       <c r="I228" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J228" s="101"/>
+      <c r="J228" s="115"/>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B229" s="110"/>
-      <c r="C229" s="77"/>
+      <c r="B229" s="112"/>
+      <c r="C229" s="104"/>
       <c r="D229" s="18">
         <v>7</v>
       </c>
@@ -7413,11 +7404,11 @@
       <c r="I229" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="J229" s="101"/>
+      <c r="J229" s="115"/>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B230" s="110"/>
-      <c r="C230" s="77"/>
+      <c r="B230" s="112"/>
+      <c r="C230" s="104"/>
       <c r="D230" s="8">
         <v>8</v>
       </c>
@@ -7436,11 +7427,11 @@
       <c r="I230" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J230" s="101"/>
+      <c r="J230" s="115"/>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B231" s="110"/>
-      <c r="C231" s="77"/>
+      <c r="B231" s="112"/>
+      <c r="C231" s="104"/>
       <c r="D231" s="18">
         <v>9</v>
       </c>
@@ -7459,11 +7450,11 @@
       <c r="I231" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="J231" s="101"/>
+      <c r="J231" s="115"/>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B232" s="110"/>
-      <c r="C232" s="77"/>
+      <c r="B232" s="112"/>
+      <c r="C232" s="104"/>
       <c r="D232" s="8">
         <v>10</v>
       </c>
@@ -7482,11 +7473,11 @@
       <c r="I232" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="J232" s="101"/>
+      <c r="J232" s="115"/>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B233" s="110"/>
-      <c r="C233" s="77"/>
+      <c r="B233" s="112"/>
+      <c r="C233" s="104"/>
       <c r="D233" s="18">
         <v>11</v>
       </c>
@@ -7505,11 +7496,11 @@
       <c r="I233" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="J233" s="101"/>
+      <c r="J233" s="115"/>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B234" s="110"/>
-      <c r="C234" s="77"/>
+      <c r="B234" s="112"/>
+      <c r="C234" s="104"/>
       <c r="D234" s="8">
         <v>12</v>
       </c>
@@ -7524,11 +7515,11 @@
       <c r="I234" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J234" s="101"/>
+      <c r="J234" s="115"/>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B235" s="110"/>
-      <c r="C235" s="77"/>
+      <c r="B235" s="112"/>
+      <c r="C235" s="104"/>
       <c r="D235" s="18">
         <v>13</v>
       </c>
@@ -7543,11 +7534,11 @@
       <c r="I235" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="J235" s="101"/>
+      <c r="J235" s="115"/>
     </row>
     <row r="236" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="110"/>
-      <c r="C236" s="78"/>
+      <c r="B236" s="112"/>
+      <c r="C236" s="105"/>
       <c r="D236" s="9">
         <v>14</v>
       </c>
@@ -7566,11 +7557,11 @@
       <c r="I236" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J236" s="101"/>
+      <c r="J236" s="115"/>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B237" s="110"/>
-      <c r="C237" s="91" t="s">
+      <c r="B237" s="112"/>
+      <c r="C237" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D237" s="17">
@@ -7591,11 +7582,11 @@
       <c r="I237" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="J237" s="101"/>
+      <c r="J237" s="115"/>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B238" s="110"/>
-      <c r="C238" s="92"/>
+      <c r="B238" s="112"/>
+      <c r="C238" s="108"/>
       <c r="D238" s="8">
         <v>1</v>
       </c>
@@ -7614,11 +7605,11 @@
       <c r="I238" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="J238" s="101"/>
+      <c r="J238" s="115"/>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B239" s="110"/>
-      <c r="C239" s="92"/>
+      <c r="B239" s="112"/>
+      <c r="C239" s="108"/>
       <c r="D239" s="18">
         <v>2</v>
       </c>
@@ -7637,11 +7628,11 @@
       <c r="I239" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="J239" s="101"/>
+      <c r="J239" s="115"/>
     </row>
     <row r="240" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="110"/>
-      <c r="C240" s="93"/>
+      <c r="B240" s="112"/>
+      <c r="C240" s="107"/>
       <c r="D240" s="9">
         <v>3</v>
       </c>
@@ -7660,11 +7651,11 @@
       <c r="I240" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="J240" s="101"/>
+      <c r="J240" s="115"/>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B241" s="110"/>
-      <c r="C241" s="94" t="s">
+      <c r="B241" s="112"/>
+      <c r="C241" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D241" s="17">
@@ -7685,11 +7676,11 @@
       <c r="I241" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="J241" s="101"/>
+      <c r="J241" s="115"/>
     </row>
     <row r="242" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="111"/>
-      <c r="C242" s="96"/>
+      <c r="B242" s="113"/>
+      <c r="C242" s="110"/>
       <c r="D242" s="9">
         <v>1</v>
       </c>
@@ -7708,13 +7699,13 @@
       <c r="I242" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="J242" s="102"/>
+      <c r="J242" s="116"/>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B243" s="103">
+      <c r="B243" s="64">
         <v>13</v>
       </c>
-      <c r="C243" s="88" t="s">
+      <c r="C243" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D243" s="17">
@@ -7735,13 +7726,13 @@
       <c r="I243" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J243" s="106" t="s">
+      <c r="J243" s="72" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B244" s="104"/>
-      <c r="C244" s="89"/>
+      <c r="B244" s="65"/>
+      <c r="C244" s="101"/>
       <c r="D244" s="8">
         <v>1</v>
       </c>
@@ -7760,11 +7751,11 @@
       <c r="I244" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J244" s="107"/>
+      <c r="J244" s="73"/>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B245" s="104"/>
-      <c r="C245" s="89"/>
+      <c r="B245" s="65"/>
+      <c r="C245" s="101"/>
       <c r="D245" s="18">
         <v>2</v>
       </c>
@@ -7783,11 +7774,11 @@
       <c r="I245" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J245" s="107"/>
+      <c r="J245" s="73"/>
     </row>
     <row r="246" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="104"/>
-      <c r="C246" s="90"/>
+      <c r="B246" s="65"/>
+      <c r="C246" s="102"/>
       <c r="D246" s="9">
         <v>3</v>
       </c>
@@ -7806,11 +7797,11 @@
       <c r="I246" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J246" s="107"/>
+      <c r="J246" s="73"/>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B247" s="104"/>
-      <c r="C247" s="76" t="s">
+      <c r="B247" s="65"/>
+      <c r="C247" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D247" s="17">
@@ -7831,11 +7822,11 @@
       <c r="I247" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J247" s="107"/>
+      <c r="J247" s="73"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B248" s="104"/>
-      <c r="C248" s="77"/>
+      <c r="B248" s="65"/>
+      <c r="C248" s="104"/>
       <c r="D248" s="8">
         <v>1</v>
       </c>
@@ -7854,11 +7845,11 @@
       <c r="I248" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J248" s="107"/>
+      <c r="J248" s="73"/>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B249" s="104"/>
-      <c r="C249" s="77"/>
+      <c r="B249" s="65"/>
+      <c r="C249" s="104"/>
       <c r="D249" s="18">
         <v>2</v>
       </c>
@@ -7877,11 +7868,11 @@
       <c r="I249" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="J249" s="107"/>
+      <c r="J249" s="73"/>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B250" s="104"/>
-      <c r="C250" s="77"/>
+      <c r="B250" s="65"/>
+      <c r="C250" s="104"/>
       <c r="D250" s="8">
         <v>3</v>
       </c>
@@ -7900,11 +7891,11 @@
       <c r="I250" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="J250" s="107"/>
+      <c r="J250" s="73"/>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B251" s="104"/>
-      <c r="C251" s="77"/>
+      <c r="B251" s="65"/>
+      <c r="C251" s="104"/>
       <c r="D251" s="18">
         <v>4</v>
       </c>
@@ -7923,11 +7914,11 @@
       <c r="I251" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="J251" s="107"/>
+      <c r="J251" s="73"/>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B252" s="104"/>
-      <c r="C252" s="77"/>
+      <c r="B252" s="65"/>
+      <c r="C252" s="104"/>
       <c r="D252" s="8">
         <v>5</v>
       </c>
@@ -7946,11 +7937,11 @@
       <c r="I252" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="J252" s="107"/>
+      <c r="J252" s="73"/>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B253" s="104"/>
-      <c r="C253" s="77"/>
+      <c r="B253" s="65"/>
+      <c r="C253" s="104"/>
       <c r="D253" s="18">
         <v>6</v>
       </c>
@@ -7969,11 +7960,11 @@
       <c r="I253" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="J253" s="107"/>
+      <c r="J253" s="73"/>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B254" s="104"/>
-      <c r="C254" s="77"/>
+      <c r="B254" s="65"/>
+      <c r="C254" s="104"/>
       <c r="D254" s="8">
         <v>7</v>
       </c>
@@ -7988,11 +7979,11 @@
       <c r="I254" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J254" s="107"/>
+      <c r="J254" s="73"/>
     </row>
     <row r="255" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="104"/>
-      <c r="C255" s="78"/>
+      <c r="B255" s="65"/>
+      <c r="C255" s="105"/>
       <c r="D255" s="19">
         <v>8</v>
       </c>
@@ -8011,11 +8002,11 @@
       <c r="I255" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J255" s="107"/>
+      <c r="J255" s="73"/>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B256" s="104"/>
-      <c r="C256" s="91" t="s">
+      <c r="B256" s="65"/>
+      <c r="C256" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D256" s="10">
@@ -8036,11 +8027,11 @@
       <c r="I256" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="J256" s="107"/>
+      <c r="J256" s="73"/>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B257" s="104"/>
-      <c r="C257" s="92"/>
+      <c r="B257" s="65"/>
+      <c r="C257" s="108"/>
       <c r="D257" s="18">
         <v>1</v>
       </c>
@@ -8059,11 +8050,11 @@
       <c r="I257" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J257" s="107"/>
+      <c r="J257" s="73"/>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B258" s="104"/>
-      <c r="C258" s="92"/>
+      <c r="B258" s="65"/>
+      <c r="C258" s="108"/>
       <c r="D258" s="8">
         <v>2</v>
       </c>
@@ -8082,11 +8073,11 @@
       <c r="I258" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="J258" s="107"/>
+      <c r="J258" s="73"/>
     </row>
     <row r="259" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="104"/>
-      <c r="C259" s="93"/>
+      <c r="B259" s="65"/>
+      <c r="C259" s="107"/>
       <c r="D259" s="19">
         <v>3</v>
       </c>
@@ -8105,11 +8096,11 @@
       <c r="I259" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J259" s="107"/>
+      <c r="J259" s="73"/>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B260" s="104"/>
-      <c r="C260" s="94" t="s">
+      <c r="B260" s="65"/>
+      <c r="C260" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D260" s="10">
@@ -8130,11 +8121,11 @@
       <c r="I260" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="J260" s="107"/>
+      <c r="J260" s="73"/>
     </row>
     <row r="261" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="105"/>
-      <c r="C261" s="96"/>
+      <c r="B261" s="66"/>
+      <c r="C261" s="110"/>
       <c r="D261" s="19">
         <v>1</v>
       </c>
@@ -8153,13 +8144,13 @@
       <c r="I261" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J261" s="108"/>
+      <c r="J261" s="74"/>
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B262" s="73">
+      <c r="B262" s="117">
         <v>14</v>
       </c>
-      <c r="C262" s="88" t="s">
+      <c r="C262" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D262" s="10">
@@ -8180,13 +8171,13 @@
       <c r="I262" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="J262" s="100" t="s">
+      <c r="J262" s="114" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B263" s="74"/>
-      <c r="C263" s="89"/>
+      <c r="B263" s="118"/>
+      <c r="C263" s="101"/>
       <c r="D263" s="18">
         <v>1</v>
       </c>
@@ -8205,11 +8196,11 @@
       <c r="I263" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J263" s="101"/>
+      <c r="J263" s="115"/>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B264" s="74"/>
-      <c r="C264" s="89"/>
+      <c r="B264" s="118"/>
+      <c r="C264" s="101"/>
       <c r="D264" s="8">
         <v>2</v>
       </c>
@@ -8228,11 +8219,11 @@
       <c r="I264" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J264" s="101"/>
+      <c r="J264" s="115"/>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B265" s="74"/>
-      <c r="C265" s="89"/>
+      <c r="B265" s="118"/>
+      <c r="C265" s="101"/>
       <c r="D265" s="18">
         <v>3</v>
       </c>
@@ -8251,11 +8242,11 @@
       <c r="I265" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J265" s="101"/>
+      <c r="J265" s="115"/>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B266" s="74"/>
-      <c r="C266" s="89"/>
+      <c r="B266" s="118"/>
+      <c r="C266" s="101"/>
       <c r="D266" s="8">
         <v>4</v>
       </c>
@@ -8274,11 +8265,11 @@
       <c r="I266" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J266" s="101"/>
+      <c r="J266" s="115"/>
     </row>
     <row r="267" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="74"/>
-      <c r="C267" s="90"/>
+      <c r="B267" s="118"/>
+      <c r="C267" s="102"/>
       <c r="D267" s="19">
         <v>5</v>
       </c>
@@ -8297,11 +8288,11 @@
       <c r="I267" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J267" s="101"/>
+      <c r="J267" s="115"/>
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B268" s="74"/>
-      <c r="C268" s="76" t="s">
+      <c r="B268" s="118"/>
+      <c r="C268" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D268" s="10">
@@ -8322,11 +8313,11 @@
       <c r="I268" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="J268" s="101"/>
+      <c r="J268" s="115"/>
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B269" s="74"/>
-      <c r="C269" s="77"/>
+      <c r="B269" s="118"/>
+      <c r="C269" s="104"/>
       <c r="D269" s="18">
         <v>1</v>
       </c>
@@ -8345,11 +8336,11 @@
       <c r="I269" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J269" s="101"/>
+      <c r="J269" s="115"/>
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B270" s="74"/>
-      <c r="C270" s="77"/>
+      <c r="B270" s="118"/>
+      <c r="C270" s="104"/>
       <c r="D270" s="8">
         <v>2</v>
       </c>
@@ -8368,11 +8359,11 @@
       <c r="I270" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J270" s="101"/>
+      <c r="J270" s="115"/>
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B271" s="74"/>
-      <c r="C271" s="77"/>
+      <c r="B271" s="118"/>
+      <c r="C271" s="104"/>
       <c r="D271" s="18">
         <v>3</v>
       </c>
@@ -8391,11 +8382,11 @@
       <c r="I271" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="J271" s="101"/>
+      <c r="J271" s="115"/>
     </row>
     <row r="272" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B272" s="74"/>
-      <c r="C272" s="77"/>
+      <c r="B272" s="118"/>
+      <c r="C272" s="104"/>
       <c r="D272" s="8">
         <v>4</v>
       </c>
@@ -8414,11 +8405,11 @@
       <c r="I272" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J272" s="101"/>
+      <c r="J272" s="115"/>
     </row>
     <row r="273" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B273" s="74"/>
-      <c r="C273" s="77"/>
+      <c r="B273" s="118"/>
+      <c r="C273" s="104"/>
       <c r="D273" s="18">
         <v>5</v>
       </c>
@@ -8437,11 +8428,11 @@
       <c r="I273" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="J273" s="101"/>
+      <c r="J273" s="115"/>
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B274" s="74"/>
-      <c r="C274" s="77"/>
+      <c r="B274" s="118"/>
+      <c r="C274" s="104"/>
       <c r="D274" s="8">
         <v>6</v>
       </c>
@@ -8460,11 +8451,11 @@
       <c r="I274" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="J274" s="101"/>
+      <c r="J274" s="115"/>
     </row>
     <row r="275" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B275" s="74"/>
-      <c r="C275" s="77"/>
+      <c r="B275" s="118"/>
+      <c r="C275" s="104"/>
       <c r="D275" s="18">
         <v>7</v>
       </c>
@@ -8483,11 +8474,11 @@
       <c r="I275" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="J275" s="101"/>
+      <c r="J275" s="115"/>
     </row>
     <row r="276" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B276" s="74"/>
-      <c r="C276" s="77"/>
+      <c r="B276" s="118"/>
+      <c r="C276" s="104"/>
       <c r="D276" s="8">
         <v>8</v>
       </c>
@@ -8506,11 +8497,11 @@
       <c r="I276" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="J276" s="101"/>
+      <c r="J276" s="115"/>
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B277" s="74"/>
-      <c r="C277" s="77"/>
+      <c r="B277" s="118"/>
+      <c r="C277" s="104"/>
       <c r="D277" s="18">
         <v>9</v>
       </c>
@@ -8529,11 +8520,11 @@
       <c r="I277" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="J277" s="101"/>
+      <c r="J277" s="115"/>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B278" s="74"/>
-      <c r="C278" s="77"/>
+      <c r="B278" s="118"/>
+      <c r="C278" s="104"/>
       <c r="D278" s="8">
         <v>10</v>
       </c>
@@ -8552,11 +8543,11 @@
       <c r="I278" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="J278" s="101"/>
+      <c r="J278" s="115"/>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B279" s="74"/>
-      <c r="C279" s="77"/>
+      <c r="B279" s="118"/>
+      <c r="C279" s="104"/>
       <c r="D279" s="18">
         <v>11</v>
       </c>
@@ -8575,11 +8566,11 @@
       <c r="I279" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="J279" s="101"/>
+      <c r="J279" s="115"/>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B280" s="74"/>
-      <c r="C280" s="77"/>
+      <c r="B280" s="118"/>
+      <c r="C280" s="104"/>
       <c r="D280" s="8">
         <v>12</v>
       </c>
@@ -8598,11 +8589,11 @@
       <c r="I280" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="J280" s="101"/>
+      <c r="J280" s="115"/>
     </row>
     <row r="281" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B281" s="74"/>
-      <c r="C281" s="77"/>
+      <c r="B281" s="118"/>
+      <c r="C281" s="104"/>
       <c r="D281" s="18">
         <v>13</v>
       </c>
@@ -8621,11 +8612,11 @@
       <c r="I281" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="J281" s="101"/>
+      <c r="J281" s="115"/>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B282" s="74"/>
-      <c r="C282" s="77"/>
+      <c r="B282" s="118"/>
+      <c r="C282" s="104"/>
       <c r="D282" s="8">
         <v>14</v>
       </c>
@@ -8644,11 +8635,11 @@
       <c r="I282" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="J282" s="101"/>
+      <c r="J282" s="115"/>
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B283" s="74"/>
-      <c r="C283" s="77"/>
+      <c r="B283" s="118"/>
+      <c r="C283" s="104"/>
       <c r="D283" s="18">
         <v>15</v>
       </c>
@@ -8663,11 +8654,11 @@
       <c r="I283" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J283" s="101"/>
+      <c r="J283" s="115"/>
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B284" s="74"/>
-      <c r="C284" s="77"/>
+      <c r="B284" s="118"/>
+      <c r="C284" s="104"/>
       <c r="D284" s="8">
         <v>16</v>
       </c>
@@ -8682,11 +8673,11 @@
       <c r="I284" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J284" s="101"/>
+      <c r="J284" s="115"/>
     </row>
     <row r="285" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="74"/>
-      <c r="C285" s="78"/>
+      <c r="B285" s="118"/>
+      <c r="C285" s="105"/>
       <c r="D285" s="19">
         <v>17</v>
       </c>
@@ -8705,11 +8696,11 @@
       <c r="I285" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J285" s="101"/>
+      <c r="J285" s="115"/>
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B286" s="74"/>
-      <c r="C286" s="91" t="s">
+      <c r="B286" s="118"/>
+      <c r="C286" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D286" s="10">
@@ -8730,11 +8721,11 @@
       <c r="I286" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="J286" s="101"/>
+      <c r="J286" s="115"/>
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B287" s="74"/>
-      <c r="C287" s="92"/>
+      <c r="B287" s="118"/>
+      <c r="C287" s="108"/>
       <c r="D287" s="18">
         <v>1</v>
       </c>
@@ -8753,11 +8744,11 @@
       <c r="I287" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J287" s="101"/>
+      <c r="J287" s="115"/>
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B288" s="74"/>
-      <c r="C288" s="92"/>
+      <c r="B288" s="118"/>
+      <c r="C288" s="108"/>
       <c r="D288" s="8">
         <v>2</v>
       </c>
@@ -8776,11 +8767,11 @@
       <c r="I288" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="J288" s="101"/>
+      <c r="J288" s="115"/>
     </row>
     <row r="289" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="74"/>
-      <c r="C289" s="93"/>
+      <c r="B289" s="118"/>
+      <c r="C289" s="107"/>
       <c r="D289" s="19">
         <v>3</v>
       </c>
@@ -8799,11 +8790,11 @@
       <c r="I289" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J289" s="101"/>
+      <c r="J289" s="115"/>
     </row>
     <row r="290" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B290" s="74"/>
-      <c r="C290" s="94" t="s">
+      <c r="B290" s="118"/>
+      <c r="C290" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D290" s="10">
@@ -8824,11 +8815,11 @@
       <c r="I290" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="J290" s="101"/>
+      <c r="J290" s="115"/>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B291" s="74"/>
-      <c r="C291" s="95"/>
+      <c r="B291" s="118"/>
+      <c r="C291" s="120"/>
       <c r="D291" s="18">
         <v>1</v>
       </c>
@@ -8847,11 +8838,11 @@
       <c r="I291" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="J291" s="101"/>
+      <c r="J291" s="115"/>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B292" s="74"/>
-      <c r="C292" s="95"/>
+      <c r="B292" s="118"/>
+      <c r="C292" s="120"/>
       <c r="D292" s="8">
         <v>2</v>
       </c>
@@ -8870,11 +8861,11 @@
       <c r="I292" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J292" s="101"/>
+      <c r="J292" s="115"/>
     </row>
     <row r="293" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="75"/>
-      <c r="C293" s="96"/>
+      <c r="B293" s="119"/>
+      <c r="C293" s="110"/>
       <c r="D293" s="19">
         <v>3</v>
       </c>
@@ -8893,13 +8884,13 @@
       <c r="I293" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J293" s="102"/>
+      <c r="J293" s="116"/>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B294" s="67">
+      <c r="B294" s="122">
         <v>15</v>
       </c>
-      <c r="C294" s="88" t="s">
+      <c r="C294" s="100" t="s">
         <v>55</v>
       </c>
       <c r="D294" s="10">
@@ -8920,13 +8911,13 @@
       <c r="I294" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="J294" s="97" t="s">
+      <c r="J294" s="134" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B295" s="68"/>
-      <c r="C295" s="89"/>
+      <c r="B295" s="123"/>
+      <c r="C295" s="101"/>
       <c r="D295" s="18">
         <v>1</v>
       </c>
@@ -8945,11 +8936,11 @@
       <c r="I295" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="J295" s="98"/>
+      <c r="J295" s="135"/>
     </row>
     <row r="296" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B296" s="68"/>
-      <c r="C296" s="89"/>
+      <c r="B296" s="123"/>
+      <c r="C296" s="101"/>
       <c r="D296" s="8">
         <v>2</v>
       </c>
@@ -8968,11 +8959,11 @@
       <c r="I296" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="J296" s="98"/>
+      <c r="J296" s="135"/>
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B297" s="68"/>
-      <c r="C297" s="89"/>
+      <c r="B297" s="123"/>
+      <c r="C297" s="101"/>
       <c r="D297" s="18">
         <v>3</v>
       </c>
@@ -8991,11 +8982,11 @@
       <c r="I297" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="J297" s="98"/>
+      <c r="J297" s="135"/>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B298" s="68"/>
-      <c r="C298" s="89"/>
+      <c r="B298" s="123"/>
+      <c r="C298" s="101"/>
       <c r="D298" s="8">
         <v>4</v>
       </c>
@@ -9014,11 +9005,11 @@
       <c r="I298" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="J298" s="98"/>
+      <c r="J298" s="135"/>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B299" s="68"/>
-      <c r="C299" s="89"/>
+      <c r="B299" s="123"/>
+      <c r="C299" s="101"/>
       <c r="D299" s="18">
         <v>5</v>
       </c>
@@ -9037,11 +9028,11 @@
       <c r="I299" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J299" s="98"/>
+      <c r="J299" s="135"/>
     </row>
     <row r="300" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B300" s="68"/>
-      <c r="C300" s="89"/>
+      <c r="B300" s="123"/>
+      <c r="C300" s="101"/>
       <c r="D300" s="8">
         <v>6</v>
       </c>
@@ -9060,11 +9051,11 @@
       <c r="I300" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="J300" s="98"/>
+      <c r="J300" s="135"/>
     </row>
     <row r="301" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="68"/>
-      <c r="C301" s="90"/>
+      <c r="B301" s="123"/>
+      <c r="C301" s="102"/>
       <c r="D301" s="19">
         <v>7</v>
       </c>
@@ -9083,11 +9074,11 @@
       <c r="I301" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J301" s="98"/>
+      <c r="J301" s="135"/>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B302" s="68"/>
-      <c r="C302" s="76" t="s">
+      <c r="B302" s="123"/>
+      <c r="C302" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D302" s="10">
@@ -9108,11 +9099,11 @@
       <c r="I302" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="J302" s="98"/>
+      <c r="J302" s="135"/>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B303" s="68"/>
-      <c r="C303" s="77"/>
+      <c r="B303" s="123"/>
+      <c r="C303" s="104"/>
       <c r="D303" s="18">
         <v>1</v>
       </c>
@@ -9131,11 +9122,11 @@
       <c r="I303" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="J303" s="98"/>
+      <c r="J303" s="135"/>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B304" s="68"/>
-      <c r="C304" s="77"/>
+      <c r="B304" s="123"/>
+      <c r="C304" s="104"/>
       <c r="D304" s="8">
         <v>2</v>
       </c>
@@ -9154,11 +9145,11 @@
       <c r="I304" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="J304" s="98"/>
+      <c r="J304" s="135"/>
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B305" s="68"/>
-      <c r="C305" s="77"/>
+      <c r="B305" s="123"/>
+      <c r="C305" s="104"/>
       <c r="D305" s="18">
         <v>3</v>
       </c>
@@ -9177,11 +9168,11 @@
       <c r="I305" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J305" s="98"/>
+      <c r="J305" s="135"/>
     </row>
     <row r="306" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B306" s="68"/>
-      <c r="C306" s="77"/>
+      <c r="B306" s="123"/>
+      <c r="C306" s="104"/>
       <c r="D306" s="8">
         <v>4</v>
       </c>
@@ -9200,11 +9191,11 @@
       <c r="I306" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="J306" s="98"/>
+      <c r="J306" s="135"/>
     </row>
     <row r="307" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B307" s="68"/>
-      <c r="C307" s="77"/>
+      <c r="B307" s="123"/>
+      <c r="C307" s="104"/>
       <c r="D307" s="18">
         <v>5</v>
       </c>
@@ -9219,11 +9210,11 @@
       <c r="I307" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="J307" s="98"/>
+      <c r="J307" s="135"/>
     </row>
     <row r="308" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="68"/>
-      <c r="C308" s="78"/>
+      <c r="B308" s="123"/>
+      <c r="C308" s="105"/>
       <c r="D308" s="9">
         <v>6</v>
       </c>
@@ -9242,11 +9233,11 @@
       <c r="I308" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="J308" s="98"/>
+      <c r="J308" s="135"/>
     </row>
     <row r="309" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B309" s="68"/>
-      <c r="C309" s="91" t="s">
+      <c r="B309" s="123"/>
+      <c r="C309" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D309" s="17">
@@ -9267,11 +9258,11 @@
       <c r="I309" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J309" s="98"/>
+      <c r="J309" s="135"/>
     </row>
     <row r="310" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B310" s="68"/>
-      <c r="C310" s="92"/>
+      <c r="B310" s="123"/>
+      <c r="C310" s="108"/>
       <c r="D310" s="8">
         <v>1</v>
       </c>
@@ -9290,11 +9281,11 @@
       <c r="I310" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="J310" s="98"/>
+      <c r="J310" s="135"/>
     </row>
     <row r="311" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B311" s="68"/>
-      <c r="C311" s="92"/>
+      <c r="B311" s="123"/>
+      <c r="C311" s="108"/>
       <c r="D311" s="18">
         <v>2</v>
       </c>
@@ -9313,11 +9304,11 @@
       <c r="I311" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="J311" s="98"/>
+      <c r="J311" s="135"/>
     </row>
     <row r="312" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="68"/>
-      <c r="C312" s="93"/>
+      <c r="B312" s="123"/>
+      <c r="C312" s="107"/>
       <c r="D312" s="9">
         <v>3</v>
       </c>
@@ -9336,11 +9327,11 @@
       <c r="I312" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J312" s="98"/>
+      <c r="J312" s="135"/>
     </row>
     <row r="313" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B313" s="68"/>
-      <c r="C313" s="94" t="s">
+      <c r="B313" s="123"/>
+      <c r="C313" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D313" s="17">
@@ -9361,11 +9352,11 @@
       <c r="I313" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="J313" s="98"/>
+      <c r="J313" s="135"/>
     </row>
     <row r="314" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B314" s="68"/>
-      <c r="C314" s="95"/>
+      <c r="B314" s="123"/>
+      <c r="C314" s="120"/>
       <c r="D314" s="8">
         <v>1</v>
       </c>
@@ -9384,11 +9375,11 @@
       <c r="I314" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="J314" s="98"/>
+      <c r="J314" s="135"/>
     </row>
     <row r="315" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B315" s="68"/>
-      <c r="C315" s="95"/>
+      <c r="B315" s="123"/>
+      <c r="C315" s="120"/>
       <c r="D315" s="18">
         <v>2</v>
       </c>
@@ -9407,11 +9398,11 @@
       <c r="I315" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="J315" s="98"/>
+      <c r="J315" s="135"/>
     </row>
     <row r="316" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B316" s="68"/>
-      <c r="C316" s="95"/>
+      <c r="B316" s="123"/>
+      <c r="C316" s="120"/>
       <c r="D316" s="8">
         <v>3</v>
       </c>
@@ -9430,11 +9421,11 @@
       <c r="I316" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="J316" s="98"/>
+      <c r="J316" s="135"/>
     </row>
     <row r="317" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="69"/>
-      <c r="C317" s="96"/>
+      <c r="B317" s="124"/>
+      <c r="C317" s="110"/>
       <c r="D317" s="19">
         <v>4</v>
       </c>
@@ -9453,13 +9444,13 @@
       <c r="I317" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="J317" s="99"/>
+      <c r="J317" s="136"/>
     </row>
     <row r="318" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B318" s="79">
+      <c r="B318" s="128">
         <v>16</v>
       </c>
-      <c r="C318" s="76" t="s">
+      <c r="C318" s="103" t="s">
         <v>11</v>
       </c>
       <c r="D318" s="10">
@@ -9480,13 +9471,13 @@
       <c r="I318" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="J318" s="82" t="s">
+      <c r="J318" s="131" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="319" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B319" s="80"/>
-      <c r="C319" s="77"/>
+      <c r="B319" s="129"/>
+      <c r="C319" s="104"/>
       <c r="D319" s="18">
         <v>1</v>
       </c>
@@ -9505,11 +9496,11 @@
       <c r="I319" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="J319" s="83"/>
+      <c r="J319" s="132"/>
     </row>
     <row r="320" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B320" s="80"/>
-      <c r="C320" s="77"/>
+      <c r="B320" s="129"/>
+      <c r="C320" s="104"/>
       <c r="D320" s="8">
         <v>2</v>
       </c>
@@ -9528,11 +9519,11 @@
       <c r="I320" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="J320" s="83"/>
+      <c r="J320" s="132"/>
     </row>
     <row r="321" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B321" s="80"/>
-      <c r="C321" s="77"/>
+      <c r="B321" s="129"/>
+      <c r="C321" s="104"/>
       <c r="D321" s="18">
         <v>3</v>
       </c>
@@ -9551,11 +9542,11 @@
       <c r="I321" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="J321" s="83"/>
+      <c r="J321" s="132"/>
     </row>
     <row r="322" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B322" s="80"/>
-      <c r="C322" s="77"/>
+      <c r="B322" s="129"/>
+      <c r="C322" s="104"/>
       <c r="D322" s="8">
         <v>4</v>
       </c>
@@ -9574,11 +9565,11 @@
       <c r="I322" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="J322" s="83"/>
+      <c r="J322" s="132"/>
     </row>
     <row r="323" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B323" s="80"/>
-      <c r="C323" s="77"/>
+      <c r="B323" s="129"/>
+      <c r="C323" s="104"/>
       <c r="D323" s="18">
         <v>5</v>
       </c>
@@ -9597,11 +9588,11 @@
       <c r="I323" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="J323" s="83"/>
+      <c r="J323" s="132"/>
     </row>
     <row r="324" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B324" s="80"/>
-      <c r="C324" s="77"/>
+      <c r="B324" s="129"/>
+      <c r="C324" s="104"/>
       <c r="D324" s="8">
         <v>6</v>
       </c>
@@ -9620,11 +9611,11 @@
       <c r="I324" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="J324" s="83"/>
+      <c r="J324" s="132"/>
     </row>
     <row r="325" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="80"/>
-      <c r="C325" s="78"/>
+      <c r="B325" s="129"/>
+      <c r="C325" s="105"/>
       <c r="D325" s="19">
         <v>7</v>
       </c>
@@ -9643,11 +9634,11 @@
       <c r="I325" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="J325" s="83"/>
+      <c r="J325" s="132"/>
     </row>
     <row r="326" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B326" s="80"/>
-      <c r="C326" s="85" t="s">
+      <c r="B326" s="129"/>
+      <c r="C326" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D326" s="10">
@@ -9668,11 +9659,11 @@
       <c r="I326" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J326" s="83"/>
+      <c r="J326" s="132"/>
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B327" s="80"/>
-      <c r="C327" s="86"/>
+      <c r="B327" s="129"/>
+      <c r="C327" s="96"/>
       <c r="D327" s="18">
         <v>1</v>
       </c>
@@ -9691,11 +9682,11 @@
       <c r="I327" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="J327" s="83"/>
+      <c r="J327" s="132"/>
     </row>
     <row r="328" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B328" s="80"/>
-      <c r="C328" s="86"/>
+      <c r="B328" s="129"/>
+      <c r="C328" s="96"/>
       <c r="D328" s="8">
         <v>2</v>
       </c>
@@ -9714,11 +9705,11 @@
       <c r="I328" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="J328" s="83"/>
+      <c r="J328" s="132"/>
     </row>
     <row r="329" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B329" s="80"/>
-      <c r="C329" s="86"/>
+      <c r="B329" s="129"/>
+      <c r="C329" s="96"/>
       <c r="D329" s="18">
         <v>3</v>
       </c>
@@ -9737,11 +9728,11 @@
       <c r="I329" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="J329" s="83"/>
+      <c r="J329" s="132"/>
     </row>
     <row r="330" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B330" s="80"/>
-      <c r="C330" s="86"/>
+      <c r="B330" s="129"/>
+      <c r="C330" s="96"/>
       <c r="D330" s="8">
         <v>4</v>
       </c>
@@ -9760,11 +9751,11 @@
       <c r="I330" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="J330" s="83"/>
+      <c r="J330" s="132"/>
     </row>
     <row r="331" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="81"/>
-      <c r="C331" s="87"/>
+      <c r="B331" s="130"/>
+      <c r="C331" s="92"/>
       <c r="D331" s="19">
         <v>5</v>
       </c>
@@ -9783,13 +9774,13 @@
       <c r="I331" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J331" s="84"/>
+      <c r="J331" s="133"/>
     </row>
     <row r="332" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B332" s="67">
+      <c r="B332" s="122">
         <v>17</v>
       </c>
-      <c r="C332" s="64" t="s">
+      <c r="C332" s="106" t="s">
         <v>17</v>
       </c>
       <c r="D332" s="10">
@@ -9810,13 +9801,13 @@
       <c r="I332" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="J332" s="70" t="s">
+      <c r="J332" s="125" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="333" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B333" s="68"/>
-      <c r="C333" s="65"/>
+      <c r="B333" s="123"/>
+      <c r="C333" s="108"/>
       <c r="D333" s="18">
         <v>2</v>
       </c>
@@ -9835,11 +9826,11 @@
       <c r="I333" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="J333" s="71"/>
+      <c r="J333" s="126"/>
     </row>
     <row r="334" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B334" s="68"/>
-      <c r="C334" s="65"/>
+      <c r="B334" s="123"/>
+      <c r="C334" s="108"/>
       <c r="D334" s="8">
         <v>4</v>
       </c>
@@ -9858,11 +9849,11 @@
       <c r="I334" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="J334" s="71"/>
+      <c r="J334" s="126"/>
     </row>
     <row r="335" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B335" s="68"/>
-      <c r="C335" s="65"/>
+      <c r="B335" s="123"/>
+      <c r="C335" s="108"/>
       <c r="D335" s="18">
         <v>6</v>
       </c>
@@ -9881,11 +9872,11 @@
       <c r="I335" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="J335" s="71"/>
+      <c r="J335" s="126"/>
     </row>
     <row r="336" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B336" s="68"/>
-      <c r="C336" s="65"/>
+      <c r="B336" s="123"/>
+      <c r="C336" s="108"/>
       <c r="D336" s="8">
         <v>8</v>
       </c>
@@ -9904,11 +9895,11 @@
       <c r="I336" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="J336" s="71"/>
+      <c r="J336" s="126"/>
     </row>
     <row r="337" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B337" s="68"/>
-      <c r="C337" s="65"/>
+      <c r="B337" s="123"/>
+      <c r="C337" s="108"/>
       <c r="D337" s="18">
         <v>10</v>
       </c>
@@ -9927,11 +9918,11 @@
       <c r="I337" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="J337" s="71"/>
+      <c r="J337" s="126"/>
     </row>
     <row r="338" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B338" s="68"/>
-      <c r="C338" s="65"/>
+      <c r="B338" s="123"/>
+      <c r="C338" s="108"/>
       <c r="D338" s="8">
         <v>12</v>
       </c>
@@ -9950,11 +9941,11 @@
       <c r="I338" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="J338" s="71"/>
+      <c r="J338" s="126"/>
     </row>
     <row r="339" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="68"/>
-      <c r="C339" s="66"/>
+      <c r="B339" s="123"/>
+      <c r="C339" s="107"/>
       <c r="D339" s="19">
         <v>14</v>
       </c>
@@ -9973,11 +9964,11 @@
       <c r="I339" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="J339" s="71"/>
+      <c r="J339" s="126"/>
     </row>
     <row r="340" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B340" s="68"/>
-      <c r="C340" s="64" t="s">
+      <c r="B340" s="123"/>
+      <c r="C340" s="100" t="s">
         <v>19</v>
       </c>
       <c r="D340" s="10">
@@ -9998,11 +9989,11 @@
       <c r="I340" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="J340" s="71"/>
+      <c r="J340" s="126"/>
     </row>
     <row r="341" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B341" s="68"/>
-      <c r="C341" s="65"/>
+      <c r="B341" s="123"/>
+      <c r="C341" s="101"/>
       <c r="D341" s="18">
         <v>1</v>
       </c>
@@ -10021,11 +10012,11 @@
       <c r="I341" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="J341" s="71"/>
+      <c r="J341" s="126"/>
     </row>
     <row r="342" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="69"/>
-      <c r="C342" s="66"/>
+      <c r="B342" s="124"/>
+      <c r="C342" s="102"/>
       <c r="D342" s="9">
         <v>2</v>
       </c>
@@ -10044,10 +10035,87 @@
       <c r="I342" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="J342" s="72"/>
+      <c r="J342" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="C332:C339"/>
+    <mergeCell ref="B332:B342"/>
+    <mergeCell ref="C340:C342"/>
+    <mergeCell ref="J332:J342"/>
+    <mergeCell ref="B262:B293"/>
+    <mergeCell ref="C318:C325"/>
+    <mergeCell ref="B318:B331"/>
+    <mergeCell ref="J318:J331"/>
+    <mergeCell ref="C326:C331"/>
+    <mergeCell ref="C294:C301"/>
+    <mergeCell ref="C309:C312"/>
+    <mergeCell ref="C302:C308"/>
+    <mergeCell ref="C313:C317"/>
+    <mergeCell ref="B294:B317"/>
+    <mergeCell ref="J294:J317"/>
+    <mergeCell ref="J262:J293"/>
+    <mergeCell ref="C268:C285"/>
+    <mergeCell ref="C286:C289"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="B209:B217"/>
+    <mergeCell ref="B243:B261"/>
+    <mergeCell ref="B218:B242"/>
+    <mergeCell ref="C243:C246"/>
+    <mergeCell ref="C247:C255"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="C256:C259"/>
+    <mergeCell ref="C262:C267"/>
+    <mergeCell ref="J243:J261"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="C222:C236"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="C237:C240"/>
+    <mergeCell ref="J218:J242"/>
+    <mergeCell ref="J209:J217"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C190:C202"/>
+    <mergeCell ref="C203:C206"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="C211:C213"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="B186:B208"/>
+    <mergeCell ref="J186:J208"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B152:B174"/>
+    <mergeCell ref="J152:J174"/>
+    <mergeCell ref="B175:B185"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="C178:C180"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="J175:J185"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="B132:B151"/>
+    <mergeCell ref="J132:J151"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="C156:C168"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="B109:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="J109:J131"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="C136:C146"/>
+    <mergeCell ref="C109:C114"/>
+    <mergeCell ref="C115:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="C85:C102"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="C61:C71"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="J79:J108"/>
     <mergeCell ref="B79:B108"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C48:C50"/>
@@ -10064,83 +10132,6 @@
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B56:B78"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="C61:C71"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="J79:J108"/>
-    <mergeCell ref="C109:C114"/>
-    <mergeCell ref="C115:C127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="C85:C102"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="B109:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="J109:J131"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="C136:C146"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="B132:B151"/>
-    <mergeCell ref="J132:J151"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="C156:C168"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="B186:B208"/>
-    <mergeCell ref="J186:J208"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="B152:B174"/>
-    <mergeCell ref="J152:J174"/>
-    <mergeCell ref="B175:B185"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="C178:C180"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="J175:J185"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="J209:J217"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C190:C202"/>
-    <mergeCell ref="C203:C206"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="C211:C213"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="J243:J261"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="C222:C236"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="C237:C240"/>
-    <mergeCell ref="J218:J242"/>
-    <mergeCell ref="C268:C285"/>
-    <mergeCell ref="C286:C289"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="B209:B217"/>
-    <mergeCell ref="B243:B261"/>
-    <mergeCell ref="B218:B242"/>
-    <mergeCell ref="C243:C246"/>
-    <mergeCell ref="C247:C255"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="C256:C259"/>
-    <mergeCell ref="C262:C267"/>
-    <mergeCell ref="C332:C339"/>
-    <mergeCell ref="B332:B342"/>
-    <mergeCell ref="C340:C342"/>
-    <mergeCell ref="J332:J342"/>
-    <mergeCell ref="B262:B293"/>
-    <mergeCell ref="C318:C325"/>
-    <mergeCell ref="B318:B331"/>
-    <mergeCell ref="J318:J331"/>
-    <mergeCell ref="C326:C331"/>
-    <mergeCell ref="C294:C301"/>
-    <mergeCell ref="C309:C312"/>
-    <mergeCell ref="C302:C308"/>
-    <mergeCell ref="C313:C317"/>
-    <mergeCell ref="B294:B317"/>
-    <mergeCell ref="J294:J317"/>
-    <mergeCell ref="J262:J293"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
